--- a/doc/FTLSupporter adatszerkezetek.xlsx
+++ b/doc/FTLSupporter adatszerkezetek.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="304">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -1034,17 +1034,338 @@
     <t>Összsúly (Kg)</t>
   </si>
   <si>
-    <t>Max összsúly, a behajtási övezetek meghatározásához</t>
-  </si>
-  <si>
     <t>Teljesíthető szállítási feladatok meghatározásához</t>
+  </si>
+  <si>
+    <t>Max összsúly</t>
+  </si>
+  <si>
+    <t>Járműkartegória</t>
+  </si>
+  <si>
+    <t>EtollCat</t>
+  </si>
+  <si>
+    <t>Tengelyszám alapján megállapított útdíj járműkategória:pl. 3 megadása esetén J3-as kategóriáról van szó</t>
+  </si>
+  <si>
+    <t>Rzones</t>
+  </si>
+  <si>
+    <t>Engedélyezett behajtási zónák</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vesszővel elválasztva az engedélyezett behajtási övezetek kódjai. Jelenleg az alábbi kódokat kezeli a rendszer:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>B35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Buda 3,5 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>CS12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Csepel 12 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>CS7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Csepel-Csillagtelep 7t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>DB1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Dél-Buda 12 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>DP1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Dél-Pest 12 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>DP3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Dél-Pest 3,5 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>DP7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Dél-Pest 7,5 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ÉB1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Észak-Buda 12 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ÉB7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Észak-Buda 7,5 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ÉP1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Észak-Pest 12 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>HB1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Hegyvidék 12 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>KP1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Kelet-Pest 12 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>KV3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Kelenvölgy 3,5 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>P35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Pest 3,5 t
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>P75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Közép-Pest 7,5 t
+Amennyiben nincs kitöltve, a program a GVWR alapján  meghatározott övezetlistát rendeli a járműhöz. Pl. 12T jármű esetén CS12, DB1, DP1. ÉB1, ÉP1, HB1, KP1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1087,6 +1408,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1487,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB152"/>
+  <dimension ref="A1:AB154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2418,7 +2746,7 @@
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -2458,7 +2786,7 @@
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -2798,12 +3126,22 @@
       <c r="AB41" s="15"/>
     </row>
     <row r="42" spans="1:28" ht="12.75">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="A42" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E42" s="15"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>300</v>
+      </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -2827,55 +3165,53 @@
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
     </row>
-    <row r="43" spans="1:28" ht="12.75">
-      <c r="A43" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-    </row>
-    <row r="44" spans="1:28" ht="178.5">
-      <c r="A44" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>12</v>
-      </c>
+    <row r="43" spans="1:28" ht="242.25">
+      <c r="A43" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+    </row>
+    <row r="44" spans="1:28" ht="12.75">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="F44" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
@@ -2899,62 +3235,54 @@
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
     </row>
-    <row r="45" spans="1:28" ht="51">
-      <c r="A45" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-    </row>
-    <row r="46" spans="1:28" ht="51">
-      <c r="A46" s="16" t="s">
-        <v>104</v>
+    <row r="45" spans="1:28" ht="12.75">
+      <c r="A45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+    </row>
+    <row r="46" spans="1:28" ht="178.5">
+      <c r="A46" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E46" s="15"/>
-      <c r="F46" s="3" t="s">
-        <v>107</v>
+      <c r="F46" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -2981,20 +3309,20 @@
     </row>
     <row r="47" spans="1:28" ht="25.5">
       <c r="A47" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>110</v>
+        <v>11</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="E47" s="15"/>
-      <c r="F47" s="14" t="s">
-        <v>294</v>
+      <c r="F47" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -3019,22 +3347,22 @@
       <c r="AA47" s="15"/>
       <c r="AB47" s="15"/>
     </row>
-    <row r="48" spans="1:28" ht="51">
-      <c r="A48" s="15" t="s">
-        <v>111</v>
+    <row r="48" spans="1:28" ht="12.75">
+      <c r="A48" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="E48" s="15"/>
-      <c r="F48" s="8" t="s">
-        <v>113</v>
+      <c r="F48" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -3059,22 +3387,22 @@
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
     </row>
-    <row r="49" spans="1:28" ht="51">
+    <row r="49" spans="1:28" ht="25.5">
       <c r="A49" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E49" s="15"/>
-      <c r="F49" s="8" t="s">
-        <v>116</v>
+      <c r="F49" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -3099,22 +3427,22 @@
       <c r="AA49" s="15"/>
       <c r="AB49" s="15"/>
     </row>
-    <row r="50" spans="1:28" ht="38.25">
+    <row r="50" spans="1:28" ht="25.5">
       <c r="A50" s="15" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>12</v>
+        <v>112</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="E50" s="15"/>
-      <c r="F50" s="3" t="s">
-        <v>118</v>
+      <c r="F50" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -3139,248 +3467,266 @@
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
     </row>
-    <row r="51" spans="1:28" ht="12.75">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:28" ht="25.5">
+      <c r="A51" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+    </row>
+    <row r="52" spans="1:28" ht="38.25">
+      <c r="A52" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+    </row>
+    <row r="53" spans="1:28" ht="12.75">
+      <c r="A53" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B53" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D53" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="12.75">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="15"/>
-      <c r="AA53" s="15"/>
-      <c r="AB53" s="15"/>
-    </row>
-    <row r="54" spans="1:28" ht="12.75">
-      <c r="A54" s="6" t="s">
+    <row r="55" spans="1:28" ht="12.75">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+    </row>
+    <row r="56" spans="1:28" ht="12.75">
+      <c r="A56" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
-      <c r="AB54" s="6"/>
-    </row>
-    <row r="55" spans="1:28" ht="25.5">
-      <c r="A55" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="25.5">
-      <c r="A56" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>125</v>
-      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
     </row>
     <row r="57" spans="1:28" ht="25.5">
       <c r="A57" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="25.5">
       <c r="A58" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="25.5">
+      <c r="A59" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="25.5">
+      <c r="A60" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B60" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="25.5">
-      <c r="A60" s="2" t="s">
+    <row r="62" spans="1:28" ht="25.5">
+      <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-    </row>
-    <row r="61" spans="1:28" ht="12.75">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="15"/>
-      <c r="AA61" s="15"/>
-      <c r="AB61" s="15"/>
-    </row>
-    <row r="62" spans="1:28" ht="12.75">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="15"/>
-    </row>
-    <row r="63" spans="1:28" ht="25.5">
-      <c r="A63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+    </row>
+    <row r="63" spans="1:28" ht="12.75">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="15"/>
     </row>
     <row r="64" spans="1:28" ht="12.75">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
+      <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="3"/>
       <c r="G64" s="15"/>
@@ -3406,35 +3752,37 @@
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
     </row>
-    <row r="65" spans="1:28" ht="12.75">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
+    <row r="65" spans="1:28" ht="25.5">
+      <c r="A65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
     </row>
     <row r="66" spans="1:28" ht="12.75">
       <c r="A66" s="15"/>
@@ -3467,54 +3815,42 @@
       <c r="AB66" s="15"/>
     </row>
     <row r="67" spans="1:28" ht="12.75">
-      <c r="A67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-      <c r="AB67" s="2"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
     </row>
     <row r="68" spans="1:28" ht="12.75">
-      <c r="A68" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="15"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="15"/>
-      <c r="F68" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="F68" s="3"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
@@ -3539,57 +3875,53 @@
       <c r="AB68" s="15"/>
     </row>
     <row r="69" spans="1:28" ht="12.75">
-      <c r="A69" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="15"/>
-      <c r="X69" s="15"/>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="15"/>
-      <c r="AA69" s="15"/>
-      <c r="AB69" s="15"/>
+      <c r="A69" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
     </row>
     <row r="70" spans="1:28" ht="12.75">
       <c r="A70" s="15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="16"/>
+      <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -3615,12 +3947,20 @@
       <c r="AB70" s="15"/>
     </row>
     <row r="71" spans="1:28" ht="12.75">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="16"/>
+      <c r="A71" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="15"/>
       <c r="E71" s="15"/>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
@@ -3645,12 +3985,20 @@
       <c r="AB71" s="15"/>
     </row>
     <row r="72" spans="1:28" ht="12.75">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
+      <c r="A72" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="D72" s="16"/>
       <c r="E72" s="15"/>
-      <c r="F72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
@@ -3675,54 +4023,42 @@
       <c r="AB72" s="15"/>
     </row>
     <row r="73" spans="1:28" ht="12.75">
-      <c r="A73" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-      <c r="AA73" s="2"/>
-      <c r="AB73" s="2"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
     </row>
     <row r="74" spans="1:28" ht="12.75">
-      <c r="A74" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="16"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="F74" s="3"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
@@ -3746,49 +4082,55 @@
       <c r="AA74" s="15"/>
       <c r="AB74" s="15"/>
     </row>
-    <row r="75" spans="1:28" ht="25.5">
-      <c r="A75" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
-      <c r="X75" s="15"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="15"/>
-      <c r="AA75" s="15"/>
-      <c r="AB75" s="15"/>
+    <row r="75" spans="1:28" ht="12.75">
+      <c r="A75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
     </row>
     <row r="76" spans="1:28" ht="12.75">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
+      <c r="A76" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="D76" s="16"/>
       <c r="E76" s="15"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
@@ -3812,10 +4154,16 @@
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
     </row>
-    <row r="77" spans="1:28" ht="12.75">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
+    <row r="77" spans="1:28" ht="25.5">
+      <c r="A77" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="D77" s="16"/>
       <c r="E77" s="15"/>
       <c r="F77" s="3"/>
@@ -3873,54 +4221,42 @@
       <c r="AB78" s="15"/>
     </row>
     <row r="79" spans="1:28" ht="12.75">
-      <c r="A79" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
-      <c r="AB79" s="2"/>
-    </row>
-    <row r="80" spans="1:28" ht="25.5">
-      <c r="A80" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D80" s="15"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
+      <c r="AA79" s="15"/>
+      <c r="AB79" s="15"/>
+    </row>
+    <row r="80" spans="1:28" ht="12.75">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="15"/>
-      <c r="F80" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="F80" s="3"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
@@ -3945,57 +4281,53 @@
       <c r="AB80" s="15"/>
     </row>
     <row r="81" spans="1:28" ht="12.75">
-      <c r="A81" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="15"/>
-      <c r="W81" s="15"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="15"/>
-      <c r="AA81" s="15"/>
-      <c r="AB81" s="15"/>
-    </row>
-    <row r="82" spans="1:28" ht="12.75">
+      <c r="A81" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+    </row>
+    <row r="82" spans="1:28" ht="25.5">
       <c r="A82" s="15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -4022,18 +4354,18 @@
     </row>
     <row r="83" spans="1:28" ht="12.75">
       <c r="A83" s="15" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -4059,53 +4391,57 @@
       <c r="AB83" s="15"/>
     </row>
     <row r="84" spans="1:28" ht="12.75">
-      <c r="A84" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
-      <c r="U84" s="11"/>
-      <c r="V84" s="11"/>
-      <c r="W84" s="11"/>
-      <c r="X84" s="11"/>
-      <c r="Y84" s="11"/>
-      <c r="Z84" s="11"/>
-      <c r="AA84" s="11"/>
-      <c r="AB84" s="11"/>
+      <c r="A84" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
     </row>
     <row r="85" spans="1:28" ht="12.75">
       <c r="A85" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -4131,54 +4467,54 @@
       <c r="AB85" s="15"/>
     </row>
     <row r="86" spans="1:28" ht="12.75">
-      <c r="A86" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
-      <c r="U86" s="15"/>
-      <c r="V86" s="15"/>
-      <c r="W86" s="15"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="15"/>
-      <c r="AA86" s="15"/>
-      <c r="AB86" s="15"/>
+      <c r="A86" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+      <c r="AA86" s="11"/>
+      <c r="AB86" s="11"/>
     </row>
     <row r="87" spans="1:28" ht="12.75">
       <c r="A87" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
@@ -4204,19 +4540,17 @@
     </row>
     <row r="88" spans="1:28" ht="12.75">
       <c r="A88" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
-      <c r="F88" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="F88" s="3"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
@@ -4242,19 +4576,17 @@
     </row>
     <row r="89" spans="1:28" ht="12.75">
       <c r="A89" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
-      <c r="F89" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="F89" s="3"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
@@ -4280,17 +4612,19 @@
     </row>
     <row r="90" spans="1:28" ht="12.75">
       <c r="A90" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
@@ -4314,19 +4648,21 @@
       <c r="AA90" s="15"/>
       <c r="AB90" s="15"/>
     </row>
-    <row r="91" spans="1:28" ht="25.5">
+    <row r="91" spans="1:28" ht="12.75">
       <c r="A91" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
@@ -4351,46 +4687,50 @@
       <c r="AB91" s="15"/>
     </row>
     <row r="92" spans="1:28" ht="12.75">
-      <c r="A92" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
-      <c r="T92" s="12"/>
-      <c r="U92" s="12"/>
-      <c r="V92" s="12"/>
-      <c r="W92" s="12"/>
-      <c r="X92" s="12"/>
-      <c r="Y92" s="12"/>
-      <c r="Z92" s="12"/>
-      <c r="AA92" s="12"/>
-      <c r="AB92" s="12"/>
-    </row>
-    <row r="93" spans="1:28" ht="12.75">
+      <c r="A92" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
+      <c r="AA92" s="15"/>
+      <c r="AB92" s="15"/>
+    </row>
+    <row r="93" spans="1:28" ht="25.5">
       <c r="A93" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
@@ -4419,47 +4759,43 @@
       <c r="AB93" s="15"/>
     </row>
     <row r="94" spans="1:28" ht="12.75">
-      <c r="A94" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="15"/>
-      <c r="S94" s="15"/>
-      <c r="T94" s="15"/>
-      <c r="U94" s="15"/>
-      <c r="V94" s="15"/>
-      <c r="W94" s="15"/>
-      <c r="X94" s="15"/>
-      <c r="Y94" s="15"/>
-      <c r="Z94" s="15"/>
-      <c r="AA94" s="15"/>
-      <c r="AB94" s="15"/>
+      <c r="A94" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="12"/>
     </row>
     <row r="95" spans="1:28" ht="12.75">
       <c r="A95" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>26</v>
@@ -4492,19 +4828,17 @@
     </row>
     <row r="96" spans="1:28" ht="12.75">
       <c r="A96" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
-      <c r="F96" s="5" t="s">
-        <v>193</v>
-      </c>
+      <c r="F96" s="3"/>
       <c r="G96" s="15"/>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
@@ -4530,13 +4864,13 @@
     </row>
     <row r="97" spans="1:28" ht="12.75">
       <c r="A97" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
@@ -4566,17 +4900,19 @@
     </row>
     <row r="98" spans="1:28" ht="12.75">
       <c r="A98" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
@@ -4602,13 +4938,13 @@
     </row>
     <row r="99" spans="1:28" ht="12.75">
       <c r="A99" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -4637,46 +4973,50 @@
       <c r="AB99" s="15"/>
     </row>
     <row r="100" spans="1:28" ht="12.75">
-      <c r="A100" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
-      <c r="S100" s="12"/>
-      <c r="T100" s="12"/>
-      <c r="U100" s="12"/>
-      <c r="V100" s="12"/>
-      <c r="W100" s="12"/>
-      <c r="X100" s="12"/>
-      <c r="Y100" s="12"/>
-      <c r="Z100" s="12"/>
-      <c r="AA100" s="12"/>
-      <c r="AB100" s="12"/>
+      <c r="A100" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
+      <c r="S100" s="15"/>
+      <c r="T100" s="15"/>
+      <c r="U100" s="15"/>
+      <c r="V100" s="15"/>
+      <c r="W100" s="15"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="15"/>
+      <c r="AA100" s="15"/>
+      <c r="AB100" s="15"/>
     </row>
     <row r="101" spans="1:28" ht="12.75">
       <c r="A101" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
@@ -4705,47 +5045,43 @@
       <c r="AB101" s="15"/>
     </row>
     <row r="102" spans="1:28" ht="12.75">
-      <c r="A102" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
-      <c r="T102" s="15"/>
-      <c r="U102" s="15"/>
-      <c r="V102" s="15"/>
-      <c r="W102" s="15"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="15"/>
-      <c r="AA102" s="15"/>
-      <c r="AB102" s="15"/>
+      <c r="A102" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12"/>
     </row>
     <row r="103" spans="1:28" ht="12.75">
       <c r="A103" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>26</v>
@@ -4778,19 +5114,17 @@
     </row>
     <row r="104" spans="1:28" ht="12.75">
       <c r="A104" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
-      <c r="F104" s="13" t="s">
-        <v>193</v>
-      </c>
+      <c r="F104" s="3"/>
       <c r="G104" s="15"/>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
@@ -4816,13 +5150,13 @@
     </row>
     <row r="105" spans="1:28" ht="12.75">
       <c r="A105" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
@@ -4852,17 +5186,19 @@
     </row>
     <row r="106" spans="1:28" ht="12.75">
       <c r="A106" s="15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="G106" s="15"/>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
@@ -4886,15 +5222,15 @@
       <c r="AA106" s="15"/>
       <c r="AB106" s="15"/>
     </row>
-    <row r="107" spans="1:28" ht="25.5">
+    <row r="107" spans="1:28" ht="12.75">
       <c r="A107" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -4923,52 +5259,54 @@
       <c r="AB107" s="15"/>
     </row>
     <row r="108" spans="1:28" ht="12.75">
-      <c r="A108" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
-      <c r="T108" s="12"/>
-      <c r="U108" s="12"/>
-      <c r="V108" s="12"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="12"/>
-      <c r="Y108" s="12"/>
-      <c r="Z108" s="12"/>
-      <c r="AA108" s="12"/>
-      <c r="AB108" s="12"/>
-    </row>
-    <row r="109" spans="1:28" ht="12.75">
+      <c r="A108" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="15"/>
+      <c r="U108" s="15"/>
+      <c r="V108" s="15"/>
+      <c r="W108" s="15"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="15"/>
+      <c r="AA108" s="15"/>
+      <c r="AB108" s="15"/>
+    </row>
+    <row r="109" spans="1:28" ht="25.5">
       <c r="A109" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
-      <c r="F109" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="F109" s="3"/>
       <c r="G109" s="15"/>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
@@ -4993,54 +5331,52 @@
       <c r="AB109" s="15"/>
     </row>
     <row r="110" spans="1:28" ht="12.75">
-      <c r="A110" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
-      <c r="M110" s="15"/>
-      <c r="N110" s="15"/>
-      <c r="O110" s="15"/>
-      <c r="P110" s="15"/>
-      <c r="Q110" s="15"/>
-      <c r="R110" s="15"/>
-      <c r="S110" s="15"/>
-      <c r="T110" s="15"/>
-      <c r="U110" s="15"/>
-      <c r="V110" s="15"/>
-      <c r="W110" s="15"/>
-      <c r="X110" s="15"/>
-      <c r="Y110" s="15"/>
-      <c r="Z110" s="15"/>
-      <c r="AA110" s="15"/>
-      <c r="AB110" s="15"/>
+      <c r="A110" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="12"/>
     </row>
     <row r="111" spans="1:28" ht="12.75">
       <c r="A111" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C111" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
-      <c r="F111" s="3"/>
+      <c r="F111" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="G111" s="15"/>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
@@ -5066,19 +5402,17 @@
     </row>
     <row r="112" spans="1:28" ht="12.75">
       <c r="A112" s="15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
-      <c r="F112" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="F112" s="3"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5104,13 +5438,13 @@
     </row>
     <row r="113" spans="1:28" ht="12.75">
       <c r="A113" s="15" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>20</v>
+        <v>223</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
@@ -5140,17 +5474,19 @@
     </row>
     <row r="114" spans="1:28" ht="12.75">
       <c r="A114" s="15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
-      <c r="F114" s="3"/>
+      <c r="F114" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
@@ -5176,13 +5512,13 @@
     </row>
     <row r="115" spans="1:28" ht="12.75">
       <c r="A115" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
@@ -5211,9 +5547,15 @@
       <c r="AB115" s="15"/>
     </row>
     <row r="116" spans="1:28" ht="12.75">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
+      <c r="A116" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="3"/>
@@ -5240,51 +5582,49 @@
       <c r="AA116" s="15"/>
       <c r="AB116" s="15"/>
     </row>
-    <row r="117" spans="1:28" ht="25.5">
-      <c r="A117" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
-      <c r="O117" s="11"/>
-      <c r="P117" s="11"/>
-      <c r="Q117" s="11"/>
-      <c r="R117" s="11"/>
-      <c r="S117" s="11"/>
-      <c r="T117" s="11"/>
-      <c r="U117" s="11"/>
-      <c r="V117" s="11"/>
-      <c r="W117" s="11"/>
-      <c r="X117" s="11"/>
-      <c r="Y117" s="11"/>
-      <c r="Z117" s="11"/>
-      <c r="AA117" s="11"/>
-      <c r="AB117" s="11"/>
+    <row r="117" spans="1:28" ht="12.75">
+      <c r="A117" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="15"/>
+      <c r="R117" s="15"/>
+      <c r="S117" s="15"/>
+      <c r="T117" s="15"/>
+      <c r="U117" s="15"/>
+      <c r="V117" s="15"/>
+      <c r="W117" s="15"/>
+      <c r="X117" s="15"/>
+      <c r="Y117" s="15"/>
+      <c r="Z117" s="15"/>
+      <c r="AA117" s="15"/>
+      <c r="AB117" s="15"/>
     </row>
     <row r="118" spans="1:28" ht="12.75">
-      <c r="A118" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C118" s="16"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
-      <c r="F118" s="8"/>
+      <c r="F118" s="3"/>
       <c r="G118" s="15"/>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
@@ -5309,58 +5649,50 @@
       <c r="AB118" s="15"/>
     </row>
     <row r="119" spans="1:28" ht="25.5">
-      <c r="A119" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="15"/>
-      <c r="O119" s="15"/>
-      <c r="P119" s="15"/>
-      <c r="Q119" s="15"/>
-      <c r="R119" s="15"/>
-      <c r="S119" s="15"/>
-      <c r="T119" s="15"/>
-      <c r="U119" s="15"/>
-      <c r="V119" s="15"/>
-      <c r="W119" s="15"/>
-      <c r="X119" s="15"/>
-      <c r="Y119" s="15"/>
-      <c r="Z119" s="15"/>
-      <c r="AA119" s="15"/>
-      <c r="AB119" s="15"/>
+      <c r="A119" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="11"/>
+      <c r="S119" s="11"/>
+      <c r="T119" s="11"/>
+      <c r="U119" s="11"/>
+      <c r="V119" s="11"/>
+      <c r="W119" s="11"/>
+      <c r="X119" s="11"/>
+      <c r="Y119" s="11"/>
+      <c r="Z119" s="11"/>
+      <c r="AA119" s="11"/>
+      <c r="AB119" s="11"/>
     </row>
     <row r="120" spans="1:28" ht="12.75">
       <c r="A120" s="15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>26</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C120" s="16"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
-      <c r="F120" s="3" t="s">
-        <v>242</v>
-      </c>
+      <c r="F120" s="8"/>
       <c r="G120" s="15"/>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
@@ -5384,20 +5716,20 @@
       <c r="AA120" s="15"/>
       <c r="AB120" s="15"/>
     </row>
-    <row r="121" spans="1:28" ht="12.75">
+    <row r="121" spans="1:28" ht="25.5">
       <c r="A121" s="15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
-      <c r="F121" s="3" t="s">
-        <v>245</v>
+      <c r="F121" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="G121" s="15"/>
       <c r="H121" s="15"/>
@@ -5424,18 +5756,18 @@
     </row>
     <row r="122" spans="1:28" ht="12.75">
       <c r="A122" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
-      <c r="F122" s="5" t="s">
-        <v>248</v>
+      <c r="F122" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
@@ -5461,12 +5793,20 @@
       <c r="AB122" s="15"/>
     </row>
     <row r="123" spans="1:28" ht="12.75">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="16"/>
+      <c r="A123" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="15"/>
       <c r="E123" s="15"/>
-      <c r="F123" s="3"/>
+      <c r="F123" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
@@ -5491,12 +5831,20 @@
       <c r="AB123" s="15"/>
     </row>
     <row r="124" spans="1:28" ht="12.75">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="16"/>
+      <c r="A124" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="15"/>
       <c r="E124" s="15"/>
-      <c r="F124" s="3"/>
+      <c r="F124" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
@@ -5581,54 +5929,42 @@
       <c r="AB126" s="15"/>
     </row>
     <row r="127" spans="1:28" ht="12.75">
-      <c r="A127" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
-      <c r="V127" s="2"/>
-      <c r="W127" s="2"/>
-      <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
-      <c r="Z127" s="2"/>
-      <c r="AA127" s="2"/>
-      <c r="AB127" s="2"/>
-    </row>
-    <row r="128" spans="1:28" ht="25.5">
-      <c r="A128" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+      <c r="O127" s="15"/>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="15"/>
+      <c r="R127" s="15"/>
+      <c r="S127" s="15"/>
+      <c r="T127" s="15"/>
+      <c r="U127" s="15"/>
+      <c r="V127" s="15"/>
+      <c r="W127" s="15"/>
+      <c r="X127" s="15"/>
+      <c r="Y127" s="15"/>
+      <c r="Z127" s="15"/>
+      <c r="AA127" s="15"/>
+      <c r="AB127" s="15"/>
+    </row>
+    <row r="128" spans="1:28" ht="12.75">
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
       <c r="D128" s="16"/>
       <c r="E128" s="15"/>
-      <c r="F128" s="3" t="s">
-        <v>251</v>
-      </c>
+      <c r="F128" s="3"/>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
@@ -5653,126 +5989,122 @@
       <c r="AB128" s="15"/>
     </row>
     <row r="129" spans="1:28" ht="12.75">
-      <c r="A129" s="17" t="s">
+      <c r="A129" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+      <c r="Z129" s="2"/>
+      <c r="AA129" s="2"/>
+      <c r="AB129" s="2"/>
+    </row>
+    <row r="130" spans="1:28" ht="25.5">
+      <c r="A130" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="16"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15"/>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="15"/>
+      <c r="S130" s="15"/>
+      <c r="T130" s="15"/>
+      <c r="U130" s="15"/>
+      <c r="V130" s="15"/>
+      <c r="W130" s="15"/>
+      <c r="X130" s="15"/>
+      <c r="Y130" s="15"/>
+      <c r="Z130" s="15"/>
+      <c r="AA130" s="15"/>
+      <c r="AB130" s="15"/>
+    </row>
+    <row r="131" spans="1:28" ht="12.75">
+      <c r="A131" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B131" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C131" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="5" t="s">
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:28" ht="12.75">
-      <c r="A130" s="17" t="s">
+    <row r="132" spans="1:28" ht="12.75">
+      <c r="A132" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B132" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C132" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D130" s="13"/>
-      <c r="F130" s="5" t="s">
+      <c r="D132" s="13"/>
+      <c r="F132" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:28" ht="25.5">
-      <c r="A131" s="15" t="s">
+    <row r="133" spans="1:28" ht="25.5">
+      <c r="A133" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B133" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C133" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="D131" s="16"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
-      <c r="M131" s="15"/>
-      <c r="N131" s="15"/>
-      <c r="O131" s="15"/>
-      <c r="P131" s="15"/>
-      <c r="Q131" s="15"/>
-      <c r="R131" s="15"/>
-      <c r="S131" s="15"/>
-      <c r="T131" s="15"/>
-      <c r="U131" s="15"/>
-      <c r="V131" s="15"/>
-      <c r="W131" s="15"/>
-      <c r="X131" s="15"/>
-      <c r="Y131" s="15"/>
-      <c r="Z131" s="15"/>
-      <c r="AA131" s="15"/>
-      <c r="AB131" s="15"/>
-    </row>
-    <row r="132" spans="1:28" ht="12.75">
-      <c r="A132" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" s="16"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
-      <c r="M132" s="15"/>
-      <c r="N132" s="15"/>
-      <c r="O132" s="15"/>
-      <c r="P132" s="15"/>
-      <c r="Q132" s="15"/>
-      <c r="R132" s="15"/>
-      <c r="S132" s="15"/>
-      <c r="T132" s="15"/>
-      <c r="U132" s="15"/>
-      <c r="V132" s="15"/>
-      <c r="W132" s="15"/>
-      <c r="X132" s="15"/>
-      <c r="Y132" s="15"/>
-      <c r="Z132" s="15"/>
-      <c r="AA132" s="15"/>
-      <c r="AB132" s="15"/>
-    </row>
-    <row r="133" spans="1:28" ht="12.75">
-      <c r="A133" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="D133" s="16"/>
       <c r="E133" s="15"/>
       <c r="F133" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G133" s="15"/>
       <c r="H133" s="15"/>
@@ -5799,10 +6131,10 @@
     </row>
     <row r="134" spans="1:28" ht="12.75">
       <c r="A134" s="15" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>26</v>
@@ -5810,7 +6142,7 @@
       <c r="D134" s="16"/>
       <c r="E134" s="15"/>
       <c r="F134" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G134" s="15"/>
       <c r="H134" s="15"/>
@@ -5836,11 +6168,11 @@
       <c r="AB134" s="15"/>
     </row>
     <row r="135" spans="1:28" ht="12.75">
-      <c r="A135" s="15" t="s">
-        <v>266</v>
+      <c r="A135" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>26</v>
@@ -5848,7 +6180,7 @@
       <c r="D135" s="16"/>
       <c r="E135" s="15"/>
       <c r="F135" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
@@ -5875,17 +6207,19 @@
     </row>
     <row r="136" spans="1:28" ht="12.75">
       <c r="A136" s="15" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="16"/>
       <c r="E136" s="15"/>
-      <c r="F136" s="3"/>
+      <c r="F136" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
@@ -5909,12 +6243,12 @@
       <c r="AA136" s="15"/>
       <c r="AB136" s="15"/>
     </row>
-    <row r="137" spans="1:28" ht="25.5">
+    <row r="137" spans="1:28" ht="12.75">
       <c r="A137" s="15" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>26</v>
@@ -5922,7 +6256,7 @@
       <c r="D137" s="16"/>
       <c r="E137" s="15"/>
       <c r="F137" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
@@ -5949,19 +6283,17 @@
     </row>
     <row r="138" spans="1:28" ht="12.75">
       <c r="A138" s="15" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="16"/>
       <c r="E138" s="15"/>
-      <c r="F138" s="3" t="s">
-        <v>276</v>
-      </c>
+      <c r="F138" s="3"/>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
@@ -5987,18 +6319,18 @@
     </row>
     <row r="139" spans="1:28" ht="25.5">
       <c r="A139" s="15" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="D139" s="16"/>
       <c r="E139" s="15"/>
       <c r="F139" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
@@ -6024,12 +6356,20 @@
       <c r="AB139" s="15"/>
     </row>
     <row r="140" spans="1:28" ht="12.75">
-      <c r="A140" s="15"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
+      <c r="A140" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="D140" s="16"/>
       <c r="E140" s="15"/>
-      <c r="F140" s="3"/>
+      <c r="F140" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
@@ -6053,13 +6393,21 @@
       <c r="AA140" s="15"/>
       <c r="AB140" s="15"/>
     </row>
-    <row r="141" spans="1:28" ht="12.75">
-      <c r="A141" s="15"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="15"/>
+    <row r="141" spans="1:28" ht="25.5">
+      <c r="A141" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="D141" s="16"/>
       <c r="E141" s="15"/>
-      <c r="F141" s="3"/>
+      <c r="F141" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
@@ -6114,54 +6462,42 @@
       <c r="AB142" s="15"/>
     </row>
     <row r="143" spans="1:28" ht="12.75">
-      <c r="A143" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
-      <c r="T143" s="2"/>
-      <c r="U143" s="2"/>
-      <c r="V143" s="2"/>
-      <c r="W143" s="2"/>
-      <c r="X143" s="2"/>
-      <c r="Y143" s="2"/>
-      <c r="Z143" s="2"/>
-      <c r="AA143" s="2"/>
-      <c r="AB143" s="2"/>
-    </row>
-    <row r="144" spans="1:28" ht="63.75">
-      <c r="A144" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="D144" s="15"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="15"/>
+      <c r="O143" s="15"/>
+      <c r="P143" s="15"/>
+      <c r="Q143" s="15"/>
+      <c r="R143" s="15"/>
+      <c r="S143" s="15"/>
+      <c r="T143" s="15"/>
+      <c r="U143" s="15"/>
+      <c r="V143" s="15"/>
+      <c r="W143" s="15"/>
+      <c r="X143" s="15"/>
+      <c r="Y143" s="15"/>
+      <c r="Z143" s="15"/>
+      <c r="AA143" s="15"/>
+      <c r="AB143" s="15"/>
+    </row>
+    <row r="144" spans="1:28" ht="12.75">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="16"/>
       <c r="E144" s="15"/>
-      <c r="F144" s="3" t="s">
-        <v>283</v>
-      </c>
+      <c r="F144" s="3"/>
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
@@ -6185,58 +6521,54 @@
       <c r="AA144" s="15"/>
       <c r="AB144" s="15"/>
     </row>
-    <row r="145" spans="1:28" ht="51">
-      <c r="A145" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-      <c r="N145" s="15"/>
-      <c r="O145" s="15"/>
-      <c r="P145" s="15"/>
-      <c r="Q145" s="15"/>
-      <c r="R145" s="15"/>
-      <c r="S145" s="15"/>
-      <c r="T145" s="15"/>
-      <c r="U145" s="15"/>
-      <c r="V145" s="15"/>
-      <c r="W145" s="15"/>
-      <c r="X145" s="15"/>
-      <c r="Y145" s="15"/>
-      <c r="Z145" s="15"/>
-      <c r="AA145" s="15"/>
-      <c r="AB145" s="15"/>
-    </row>
-    <row r="146" spans="1:28" ht="38.25">
+    <row r="145" spans="1:28" ht="12.75">
+      <c r="A145" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2"/>
+      <c r="V145" s="2"/>
+      <c r="W145" s="2"/>
+      <c r="X145" s="2"/>
+      <c r="Y145" s="2"/>
+      <c r="Z145" s="2"/>
+      <c r="AA145" s="2"/>
+      <c r="AB145" s="2"/>
+    </row>
+    <row r="146" spans="1:28" ht="63.75">
       <c r="A146" s="15" t="s">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
       <c r="F146" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G146" s="15"/>
       <c r="H146" s="15"/>
@@ -6261,20 +6593,20 @@
       <c r="AA146" s="15"/>
       <c r="AB146" s="15"/>
     </row>
-    <row r="147" spans="1:28" ht="38.25">
+    <row r="147" spans="1:28" ht="51">
       <c r="A147" s="15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>284</v>
+        <v>136</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
       <c r="F147" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G147" s="15"/>
       <c r="H147" s="15"/>
@@ -6299,13 +6631,21 @@
       <c r="AA147" s="15"/>
       <c r="AB147" s="15"/>
     </row>
-    <row r="148" spans="1:28" ht="12.75">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
+    <row r="148" spans="1:28" ht="38.25">
+      <c r="A148" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
-      <c r="F148" s="3"/>
+      <c r="F148" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="G148" s="15"/>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
@@ -6329,13 +6669,21 @@
       <c r="AA148" s="15"/>
       <c r="AB148" s="15"/>
     </row>
-    <row r="149" spans="1:28" ht="12.75">
-      <c r="A149" s="15"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
+    <row r="149" spans="1:28" ht="38.25">
+      <c r="A149" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>284</v>
+      </c>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
-      <c r="F149" s="3"/>
+      <c r="F149" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="G149" s="15"/>
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
@@ -6449,6 +6797,66 @@
       <c r="AA152" s="15"/>
       <c r="AB152" s="15"/>
     </row>
+    <row r="153" spans="1:28" ht="12.75">
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="15"/>
+      <c r="O153" s="15"/>
+      <c r="P153" s="15"/>
+      <c r="Q153" s="15"/>
+      <c r="R153" s="15"/>
+      <c r="S153" s="15"/>
+      <c r="T153" s="15"/>
+      <c r="U153" s="15"/>
+      <c r="V153" s="15"/>
+      <c r="W153" s="15"/>
+      <c r="X153" s="15"/>
+      <c r="Y153" s="15"/>
+      <c r="Z153" s="15"/>
+      <c r="AA153" s="15"/>
+      <c r="AB153" s="15"/>
+    </row>
+    <row r="154" spans="1:28" ht="12.75">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="15"/>
+      <c r="N154" s="15"/>
+      <c r="O154" s="15"/>
+      <c r="P154" s="15"/>
+      <c r="Q154" s="15"/>
+      <c r="R154" s="15"/>
+      <c r="S154" s="15"/>
+      <c r="T154" s="15"/>
+      <c r="U154" s="15"/>
+      <c r="V154" s="15"/>
+      <c r="W154" s="15"/>
+      <c r="X154" s="15"/>
+      <c r="Y154" s="15"/>
+      <c r="Z154" s="15"/>
+      <c r="AA154" s="15"/>
+      <c r="AB154" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/FTLSupporter adatszerkezetek.xlsx
+++ b/doc/FTLSupporter adatszerkezetek.xlsx
@@ -1047,9 +1047,6 @@
   </si>
   <si>
     <t>Tengelyszám alapján megállapított útdíj járműkategória:pl. 3 megadása esetén J3-as kategóriáról van szó</t>
-  </si>
-  <si>
-    <t>Rzones</t>
   </si>
   <si>
     <t>Engedélyezett behajtási zónák</t>
@@ -1359,6 +1356,9 @@
       <t xml:space="preserve"> Közép-Pest 7,5 t
 Amennyiben nincs kitöltve, a program a GVWR alapján  meghatározott övezetlistát rendeli a járműhöz. Pl. 12T jármű esetén CS12, DB1, DP1. ÉB1, ÉP1, HB1, KP1</t>
     </r>
+  </si>
+  <si>
+    <t>RZones</t>
   </si>
 </sst>
 </file>
@@ -1817,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="43" spans="1:28" ht="242.25">
       <c r="A43" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>136</v>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>

--- a/doc/FTLSupporter adatszerkezetek.xlsx
+++ b/doc/FTLSupporter adatszerkezetek.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="319">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -1391,6 +1391,18 @@
     <t>Vesszővel elválasztott lista, tetszőleges értékkel. Kitöltése esetén teljesítésének engedélyezése az FTLTruck.TruckProps list a tartalma alapján. (ha ez a mező tartalmaz olyan értéket, ami a FTLTruck.TruckProps-ban van, az engedélyezett a teljesítés (ez egy additív feltétel, a rakománytípus, engedélyezett járműtípus stb.. feltételek együtt határozzák meg a teljesíthetőséget)</t>
   </si>
   <si>
+    <t>Vesszővel elválasztott lista, tetszőleges értékkel. (használatához lásd FTLTask.InclTruckProps és FTLTask.ExclTruckProps  mezőket)</t>
+  </si>
+  <si>
+    <t>Türelmi időben történt megérkezés?</t>
+  </si>
+  <si>
+    <t>ArrInExtraPeriod</t>
+  </si>
+  <si>
+    <t>A türelmi idő felhasználásának lekérdezésére a hívó oldalon (Close &lt; RealDeparture feltétel).</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Türelmi idő percben megadva. 
 </t>
@@ -1422,11 +1434,8 @@
         <color rgb="FF000000"/>
         <rFont val="'Arial'"/>
       </rPr>
-      <t>A számításban a türelmi idő felhasználását a hívó oldalon a Close &lt; RealDeparture feltétellel kérdezhetjük le.</t>
+      <t>A számításban a türelmi idő felhasználását a ArrInExtraPeriod property-n keresztül kérdezhetjük le.</t>
     </r>
-  </si>
-  <si>
-    <t>Vesszővel elválasztott lista, tetszőleges értékkel. (használatához lásd FTLTask.InclTruckProps és FTLTask.ExclTruckProps  mezőket)</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -2277,7 +2286,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2396,11 +2405,21 @@
       </c>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="F15" s="16"/>
+      <c r="A15" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="16" spans="1:28">
       <c r="F16" s="15"/>
@@ -3406,7 +3425,7 @@
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>

--- a/doc/FTLSupporter adatszerkezetek.xlsx
+++ b/doc/FTLSupporter adatszerkezetek.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6996"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="342">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -418,12 +418,6 @@
     <t>NOD_ID_CURR</t>
   </si>
   <si>
-    <t>AETR adatok (később specifikáljuk)</t>
-  </si>
-  <si>
-    <t>Egyéb költségtényezők (később specifikáljuk)</t>
-  </si>
-  <si>
     <t>Eredmény hibaüzenet</t>
   </si>
   <si>
@@ -553,9 +547,6 @@
     <t>T1Duration</t>
   </si>
   <si>
-    <t xml:space="preserve">Utazás időtartama + nyitásra várakozási idő + kiszolgálási idő </t>
-  </si>
-  <si>
     <t>I. túra kezdete</t>
   </si>
   <si>
@@ -607,9 +598,6 @@
     <t>RelDuration</t>
   </si>
   <si>
-    <t>Utazás időtartama + nyitásra várakozási idő + kiszolgálási idő</t>
-  </si>
-  <si>
     <t>Átállás kezdete</t>
   </si>
   <si>
@@ -704,9 +692,6 @@
   </si>
   <si>
     <t>RetDuration</t>
-  </si>
-  <si>
-    <t>Utazás időtartama</t>
   </si>
   <si>
     <t>Visszatérés  kezdete</t>
@@ -1437,12 +1422,452 @@
       <t>A számításban a türelmi idő felhasználását a ArrInExtraPeriod property-n keresztül kérdezhetjük le.</t>
     </r>
   </si>
+  <si>
+    <t>AETR adatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RemainingDriveTime </t>
+  </si>
+  <si>
+    <t>maradék vezetési idő</t>
+  </si>
+  <si>
+    <t>RemainingRestTime</t>
+  </si>
+  <si>
+    <t>RemainingDailyDriveTime</t>
+  </si>
+  <si>
+    <t>maradék napi vezetési idő</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RemainingDailyRestTime </t>
+  </si>
+  <si>
+    <t>RemainingWeeklyDriveTime</t>
+  </si>
+  <si>
+    <t>RemainingWeeklyRestTime</t>
+  </si>
+  <si>
+    <t>RemainingRestTimeToCompensate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RemainingTimeToStartDailyRest </t>
+  </si>
+  <si>
+    <t>a pihenőig hátralévő munkaidő</t>
+  </si>
+  <si>
+    <t>maradék napi pihenőidő</t>
+  </si>
+  <si>
+    <t>maradék pihenőidő</t>
+  </si>
+  <si>
+    <t>sofőr hátralevő kétheti vezetési ideje</t>
+  </si>
+  <si>
+    <t>sofőr hátralevő kétheti pihenőideje</t>
+  </si>
+  <si>
+    <t>RemainingTwoWeeklyDriveTime</t>
+  </si>
+  <si>
+    <t>RemainingTwoWeeklyRestTime</t>
+  </si>
+  <si>
+    <t>kompenzációként adandó pihenőidő 
+(a soron következő pihenőidőbe számoljuk be)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Az input adatok alapján két vezetés-pihenés ciklussal tudunk számolni. A
+1.ciklus:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>vezetési idő</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> MIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">(RemainingDriveTime, RemainingTimeToStartDailyRes,RemainingWeeklyDriveTime,RemainingTwoWeeklyDriveTime)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>pihenőidő</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>MIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(  RemainingRestTime, RemainingDailyRestTime, RemainingWeeklyRestTime, RemainingTwoWeeklyRestTime)+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>RemainingRestTimeToCompensate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2.ciklus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>vezetési idő</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> MIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">( (RemainingDailyDriveTime- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>1.ciklus vezetési idő</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">), RemainingWeeklyDriveTime, RemainingTwoWeeklyDriveTime)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">pihenőidő </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> RemainingDailyRestTime-1.ciklus pihenőidő &gt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">  THEN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> RemainingDailyRestTime-1.ciklus pihenőidő </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">ELSE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">MIN( RemainingWeeklyRestTime, RemainingTwoWeeklyRestTime)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3.maradék vezetési idő</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>vezetési idő:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> MIN( RemainingWeeklyDriveTime, RemainingTwoWeeklyDriveTime)-2.ciklus vezetési idő
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>pihenőidő</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> : nem számnolható
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Fontos megjegyzés:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>minden változót csak akkor veszünk figyelembe, ha értéke nagyobb, mint nulla. Ha pl a RemainingTwoWeeklyDriveTime értéke nulla, akkor az nem vesz részt a számításokban)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Vezetés időtartama +pihenőidő + nyitásra várakozási idő + kiszolgálási idő </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vezetés időtartama +pihenőidő </t>
+  </si>
+  <si>
+    <t>Vezetés időtartama</t>
+  </si>
+  <si>
+    <t>Pihenőidő</t>
+  </si>
+  <si>
+    <t>RestDuration</t>
+  </si>
+  <si>
+    <t>A teljesítés során felhasznált pihenőidő</t>
+  </si>
+  <si>
+    <t>sofőr hátralevő heti pihenőideje</t>
+  </si>
+  <si>
+    <t>sofőr hátralevő heti vezetési ideje</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1510,6 +1935,21 @@
       <name val="'Arial'"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1567,7 +2007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1651,6 +2091,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1933,24 +2380,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB196"/>
+  <dimension ref="A1:AB203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="37.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="4"/>
-    <col min="6" max="6" width="94.88671875" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="14.44140625" style="4"/>
+    <col min="1" max="1" width="37.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="4"/>
+    <col min="6" max="6" width="94.85546875" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="39.6">
+    <row r="1" spans="1:28" ht="38.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2269,12 +2716,12 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
     </row>
-    <row r="10" spans="1:28" ht="79.2">
+    <row r="10" spans="1:28" ht="76.5">
       <c r="A10" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>26</v>
@@ -2286,7 +2733,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2406,10 +2853,10 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>106</v>
@@ -2418,7 +2865,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2546,7 +2993,7 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
     </row>
-    <row r="22" spans="1:28" ht="39.6">
+    <row r="22" spans="1:28" ht="38.25">
       <c r="A22" s="8" t="s">
         <v>51</v>
       </c>
@@ -2586,7 +3033,7 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
     </row>
-    <row r="23" spans="1:28" ht="26.4">
+    <row r="23" spans="1:28" ht="25.5">
       <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
@@ -2744,12 +3191,12 @@
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
     </row>
-    <row r="27" spans="1:28" ht="52.8">
+    <row r="27" spans="1:28" ht="51">
       <c r="A27" s="28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>11</v>
@@ -2759,7 +3206,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="19" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -2784,12 +3231,12 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
     </row>
-    <row r="28" spans="1:28" ht="26.4">
+    <row r="28" spans="1:28" ht="25.5">
       <c r="A28" s="28" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>11</v>
@@ -2799,7 +3246,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="19" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -2938,7 +3385,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="11" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>72</v>
@@ -2951,7 +3398,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="19" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -2991,7 +3438,7 @@
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="22" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -3016,7 +3463,7 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
     </row>
-    <row r="36" spans="1:28" ht="26.4">
+    <row r="36" spans="1:28" ht="25.5">
       <c r="A36" s="8" t="s">
         <v>76</v>
       </c>
@@ -3056,7 +3503,7 @@
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
     </row>
-    <row r="37" spans="1:28" ht="26.4">
+    <row r="37" spans="1:28" ht="25.5">
       <c r="A37" s="8" t="s">
         <v>79</v>
       </c>
@@ -3332,10 +3779,10 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>26</v>
@@ -3345,7 +3792,7 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -3370,22 +3817,22 @@
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
     </row>
-    <row r="45" spans="1:28" ht="237.6">
+    <row r="45" spans="1:28" ht="242.25">
       <c r="A45" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="19" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -3410,22 +3857,22 @@
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
     </row>
-    <row r="46" spans="1:28" ht="26.4">
+    <row r="46" spans="1:28" ht="25.5">
       <c r="A46" s="11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="19" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -3451,12 +3898,12 @@
       <c r="AB46" s="8"/>
     </row>
     <row r="47" spans="1:28">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="14"/>
+      <c r="F47" s="19"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -3481,8 +3928,8 @@
       <c r="AB47" s="8"/>
     </row>
     <row r="48" spans="1:28">
-      <c r="A48" s="3" t="s">
-        <v>97</v>
+      <c r="A48" s="31" t="s">
+        <v>314</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3512,26 +3959,26 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28" ht="184.8">
-      <c r="A49" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="8" t="s">
+    <row r="49" spans="1:28" ht="51.75" customHeight="1">
+      <c r="A49" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="F49" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -3553,25 +4000,23 @@
       <c r="AB49" s="8"/>
     </row>
     <row r="50" spans="1:28">
-      <c r="A50" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>102</v>
+      <c r="A50" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -3593,25 +4038,23 @@
       <c r="AB50" s="8"/>
     </row>
     <row r="51" spans="1:28">
-      <c r="A51" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>102</v>
+      <c r="A51" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
@@ -3632,26 +4075,24 @@
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
     </row>
-    <row r="52" spans="1:28">
-      <c r="A52" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>110</v>
+    <row r="52" spans="1:28" ht="17.25" customHeight="1">
+      <c r="A52" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B52" t="s">
+        <v>318</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -3672,26 +4113,24 @@
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
     </row>
-    <row r="53" spans="1:28">
-      <c r="A53" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="8" t="s">
+    <row r="53" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A53" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="C53" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>110</v>
+      <c r="D53" t="s">
+        <v>15</v>
       </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
@@ -3713,25 +4152,23 @@
       <c r="AB53" s="8"/>
     </row>
     <row r="54" spans="1:28">
-      <c r="A54" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="A54" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C54" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>110</v>
+      <c r="D54" t="s">
+        <v>15</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -3752,26 +4189,24 @@
       <c r="AA54" s="8"/>
       <c r="AB54" s="8"/>
     </row>
-    <row r="55" spans="1:28" ht="39.6">
-      <c r="A55" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>12</v>
+    <row r="55" spans="1:28">
+      <c r="A55" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
@@ -3793,35 +4228,99 @@
       <c r="AB55" s="8"/>
     </row>
     <row r="56" spans="1:28">
-      <c r="A56" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" s="10" t="s">
+      <c r="A56" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C56" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>121</v>
-      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
     </row>
     <row r="57" spans="1:28">
-      <c r="F57" s="23"/>
-    </row>
-    <row r="58" spans="1:28">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="A57" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+    </row>
+    <row r="58" spans="1:28" ht="38.25">
+      <c r="A58" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="B58" t="s">
+        <v>323</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
       <c r="E58" s="8"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -3843,117 +4342,284 @@
       <c r="AB58" s="8"/>
     </row>
     <row r="59" spans="1:28">
-      <c r="A59" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
     </row>
     <row r="60" spans="1:28">
-      <c r="A60" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="23"/>
-    </row>
-    <row r="61" spans="1:28" ht="26.4">
-      <c r="A61" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="23"/>
+      <c r="A60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+    </row>
+    <row r="61" spans="1:28" ht="178.5">
+      <c r="A61" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
     </row>
     <row r="62" spans="1:28">
-      <c r="A62" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F62" s="23"/>
+      <c r="A62" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
     </row>
     <row r="63" spans="1:28">
-      <c r="A63" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="23"/>
-    </row>
-    <row r="64" spans="1:28">
-      <c r="F64" s="23"/>
-    </row>
-    <row r="65" spans="1:28">
-      <c r="A65" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
-    </row>
-    <row r="66" spans="1:28">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
+      <c r="A63" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+    </row>
+    <row r="64" spans="1:28" ht="25.5">
+      <c r="A64" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+    </row>
+    <row r="65" spans="1:28" ht="25.5">
+      <c r="A65" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+    </row>
+    <row r="66" spans="1:28" ht="25.5">
+      <c r="A66" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="14"/>
+      <c r="F66" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -3977,13 +4643,23 @@
       <c r="AA66" s="8"/>
       <c r="AB66" s="8"/>
     </row>
-    <row r="67" spans="1:28">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
+    <row r="67" spans="1:28" ht="38.25">
+      <c r="A67" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="14"/>
+      <c r="F67" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
@@ -4007,73 +4683,31 @@
       <c r="AA67" s="8"/>
       <c r="AB67" s="8"/>
     </row>
-    <row r="68" spans="1:28" ht="26.4">
-      <c r="A68" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
+    <row r="68" spans="1:28">
+      <c r="A68" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="69" spans="1:28">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
-      <c r="Y69" s="8"/>
-      <c r="Z69" s="8"/>
-      <c r="AA69" s="8"/>
-      <c r="AB69" s="8"/>
+      <c r="F69" s="23"/>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="9"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="14"/>
       <c r="G70" s="8"/>
@@ -4100,212 +4734,77 @@
       <c r="AB70" s="8"/>
     </row>
     <row r="71" spans="1:28">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="8"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="8"/>
-      <c r="AA71" s="8"/>
-      <c r="AB71" s="8"/>
+      <c r="A71" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
     </row>
     <row r="72" spans="1:28">
-      <c r="A72" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
-      <c r="AB72" s="2"/>
-    </row>
-    <row r="73" spans="1:28">
-      <c r="A73" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="8"/>
-      <c r="Z73" s="8"/>
-      <c r="AA73" s="8"/>
-      <c r="AB73" s="8"/>
+      <c r="A72" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="23"/>
+    </row>
+    <row r="73" spans="1:28" ht="25.5">
+      <c r="A73" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="23"/>
     </row>
     <row r="74" spans="1:28">
-      <c r="A74" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="8"/>
-      <c r="AB74" s="8"/>
+      <c r="A74" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" s="23"/>
     </row>
     <row r="75" spans="1:28">
-      <c r="A75" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="8"/>
-      <c r="AB75" s="8"/>
+      <c r="A75" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" s="23"/>
     </row>
     <row r="76" spans="1:28">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
-      <c r="AA76" s="8"/>
-      <c r="AB76" s="8"/>
+      <c r="F76" s="23"/>
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="8"/>
@@ -4339,10 +4838,10 @@
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -4373,18 +4872,18 @@
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="8" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D79" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="14" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -4409,19 +4908,21 @@
       <c r="AA79" s="8"/>
       <c r="AB79" s="8"/>
     </row>
-    <row r="80" spans="1:28" ht="26.4">
+    <row r="80" spans="1:28">
       <c r="A80" s="8" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="D80" s="8"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="14"/>
+      <c r="F80" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
@@ -4446,12 +4947,20 @@
       <c r="AB80" s="8"/>
     </row>
     <row r="81" spans="1:28">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
+      <c r="A81" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="D81" s="9"/>
       <c r="E81" s="8"/>
-      <c r="F81" s="14"/>
+      <c r="F81" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
@@ -4537,10 +5046,10 @@
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -4569,20 +5078,20 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
     </row>
-    <row r="85" spans="1:28" ht="26.4">
+    <row r="85" spans="1:28">
       <c r="A85" s="8" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D85" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D85" s="9"/>
       <c r="E85" s="8"/>
       <c r="F85" s="14" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -4607,21 +5116,19 @@
       <c r="AA85" s="8"/>
       <c r="AB85" s="8"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:28" ht="25.5">
       <c r="A86" s="8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D86" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="D86" s="9"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="14" t="s">
-        <v>158</v>
-      </c>
+      <c r="F86" s="14"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -4646,20 +5153,12 @@
       <c r="AB86" s="8"/>
     </row>
     <row r="87" spans="1:28">
-      <c r="A87" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D87" s="8"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="9"/>
       <c r="E87" s="8"/>
-      <c r="F87" s="14" t="s">
-        <v>161</v>
-      </c>
+      <c r="F87" s="14"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -4684,20 +5183,12 @@
       <c r="AB87" s="8"/>
     </row>
     <row r="88" spans="1:28">
-      <c r="A88" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D88" s="8"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
       <c r="E88" s="8"/>
-      <c r="F88" s="14" t="s">
-        <v>164</v>
-      </c>
+      <c r="F88" s="14"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -4722,90 +5213,84 @@
       <c r="AB88" s="8"/>
     </row>
     <row r="89" spans="1:28">
-      <c r="A89" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="8"/>
     </row>
     <row r="90" spans="1:28">
-      <c r="A90" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="8"/>
-      <c r="Y90" s="8"/>
-      <c r="Z90" s="8"/>
-      <c r="AA90" s="8"/>
-      <c r="AB90" s="8"/>
-    </row>
-    <row r="91" spans="1:28">
+      <c r="A90" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+    </row>
+    <row r="91" spans="1:28" ht="25.5">
       <c r="A91" s="8" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="14"/>
+      <c r="F91" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
@@ -4831,17 +5316,19 @@
     </row>
     <row r="92" spans="1:28">
       <c r="A92" s="8" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="14"/>
+      <c r="F92" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
@@ -4867,18 +5354,18 @@
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="8" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="14" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -4905,18 +5392,18 @@
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="8" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="14" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -4942,54 +5429,54 @@
       <c r="AB94" s="8"/>
     </row>
     <row r="95" spans="1:28">
-      <c r="A95" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="8"/>
-      <c r="W95" s="8"/>
-      <c r="X95" s="8"/>
-      <c r="Y95" s="8"/>
-      <c r="Z95" s="8"/>
-      <c r="AA95" s="8"/>
-      <c r="AB95" s="8"/>
-    </row>
-    <row r="96" spans="1:28" ht="26.4">
+      <c r="A95" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="8" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="14"/>
+      <c r="F96" s="14" t="s">
+        <v>166</v>
+      </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -5014,43 +5501,47 @@
       <c r="AB96" s="8"/>
     </row>
     <row r="97" spans="1:28">
-      <c r="A97" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
-      <c r="Z97" s="6"/>
-      <c r="AA97" s="6"/>
-      <c r="AB97" s="6"/>
+      <c r="A97" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="8"/>
+      <c r="AA97" s="8"/>
+      <c r="AB97" s="8"/>
     </row>
     <row r="98" spans="1:28">
       <c r="A98" s="8" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>26</v>
@@ -5083,17 +5574,19 @@
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="8" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
-      <c r="F99" s="14"/>
+      <c r="F99" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -5119,17 +5612,19 @@
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="8" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
-      <c r="F100" s="14"/>
+      <c r="F100" s="14" t="s">
+        <v>175</v>
+      </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
@@ -5155,19 +5650,17 @@
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="8" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
-      <c r="F101" s="16" t="s">
-        <v>193</v>
-      </c>
+      <c r="F101" s="14"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
@@ -5191,15 +5684,15 @@
       <c r="AA101" s="8"/>
       <c r="AB101" s="8"/>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:28" ht="25.5">
       <c r="A102" s="8" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -5228,50 +5721,46 @@
       <c r="AB102" s="8"/>
     </row>
     <row r="103" spans="1:28">
-      <c r="A103" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="8"/>
-      <c r="W103" s="8"/>
-      <c r="X103" s="8"/>
-      <c r="Y103" s="8"/>
-      <c r="Z103" s="8"/>
-      <c r="AA103" s="8"/>
-      <c r="AB103" s="8"/>
+      <c r="A103" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
+      <c r="Y103" s="6"/>
+      <c r="Z103" s="6"/>
+      <c r="AA103" s="6"/>
+      <c r="AB103" s="6"/>
     </row>
     <row r="104" spans="1:28">
       <c r="A104" s="8" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -5300,43 +5789,47 @@
       <c r="AB104" s="8"/>
     </row>
     <row r="105" spans="1:28">
-      <c r="A105" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
-      <c r="T105" s="6"/>
-      <c r="U105" s="6"/>
-      <c r="V105" s="6"/>
-      <c r="W105" s="6"/>
-      <c r="X105" s="6"/>
-      <c r="Y105" s="6"/>
-      <c r="Z105" s="6"/>
-      <c r="AA105" s="6"/>
-      <c r="AB105" s="6"/>
+      <c r="A105" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="8"/>
+      <c r="W105" s="8"/>
+      <c r="X105" s="8"/>
+      <c r="Y105" s="8"/>
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="8"/>
+      <c r="AB105" s="8"/>
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="8" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>26</v>
@@ -5369,17 +5862,19 @@
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="8" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
-      <c r="F107" s="14"/>
+      <c r="F107" s="16" t="s">
+        <v>334</v>
+      </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -5405,13 +5900,13 @@
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="8" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5441,19 +5936,17 @@
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="8" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
-      <c r="F109" s="26" t="s">
-        <v>193</v>
-      </c>
+      <c r="F109" s="14"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
@@ -5479,13 +5972,13 @@
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="8" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5514,50 +6007,46 @@
       <c r="AB110" s="8"/>
     </row>
     <row r="111" spans="1:28">
-      <c r="A111" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="8"/>
-      <c r="V111" s="8"/>
-      <c r="W111" s="8"/>
-      <c r="X111" s="8"/>
-      <c r="Y111" s="8"/>
-      <c r="Z111" s="8"/>
-      <c r="AA111" s="8"/>
-      <c r="AB111" s="8"/>
-    </row>
-    <row r="112" spans="1:28" ht="26.4">
+      <c r="A111" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6"/>
+      <c r="V111" s="6"/>
+      <c r="W111" s="6"/>
+      <c r="X111" s="6"/>
+      <c r="Y111" s="6"/>
+      <c r="Z111" s="6"/>
+      <c r="AA111" s="6"/>
+      <c r="AB111" s="6"/>
+    </row>
+    <row r="112" spans="1:28">
       <c r="A112" s="8" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5586,52 +6075,54 @@
       <c r="AB112" s="8"/>
     </row>
     <row r="113" spans="1:28">
-      <c r="A113" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
-      <c r="T113" s="6"/>
-      <c r="U113" s="6"/>
-      <c r="V113" s="6"/>
-      <c r="W113" s="6"/>
-      <c r="X113" s="6"/>
-      <c r="Y113" s="6"/>
-      <c r="Z113" s="6"/>
-      <c r="AA113" s="6"/>
-      <c r="AB113" s="6"/>
+      <c r="A113" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="8"/>
+      <c r="X113" s="8"/>
+      <c r="Y113" s="8"/>
+      <c r="Z113" s="8"/>
+      <c r="AA113" s="8"/>
+      <c r="AB113" s="8"/>
     </row>
     <row r="114" spans="1:28">
       <c r="A114" s="8" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
-      <c r="F114" s="14" t="s">
-        <v>219</v>
-      </c>
+      <c r="F114" s="14"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
@@ -5657,17 +6148,19 @@
     </row>
     <row r="115" spans="1:28">
       <c r="A115" s="8" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="14"/>
+      <c r="F115" s="26" t="s">
+        <v>334</v>
+      </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
@@ -5693,13 +6186,13 @@
     </row>
     <row r="116" spans="1:28">
       <c r="A116" s="8" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>26</v>
+        <v>207</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5729,19 +6222,17 @@
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="8" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
-      <c r="F117" s="14" t="s">
-        <v>226</v>
-      </c>
+      <c r="F117" s="14"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
@@ -5765,15 +6256,15 @@
       <c r="AA117" s="8"/>
       <c r="AB117" s="8"/>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" spans="1:28" ht="25.5">
       <c r="A118" s="8" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5802,54 +6293,52 @@
       <c r="AB118" s="8"/>
     </row>
     <row r="119" spans="1:28">
-      <c r="A119" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-      <c r="Q119" s="8"/>
-      <c r="R119" s="8"/>
-      <c r="S119" s="8"/>
-      <c r="T119" s="8"/>
-      <c r="U119" s="8"/>
-      <c r="V119" s="8"/>
-      <c r="W119" s="8"/>
-      <c r="X119" s="8"/>
-      <c r="Y119" s="8"/>
-      <c r="Z119" s="8"/>
-      <c r="AA119" s="8"/>
-      <c r="AB119" s="8"/>
+      <c r="A119" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
+      <c r="U119" s="6"/>
+      <c r="V119" s="6"/>
+      <c r="W119" s="6"/>
+      <c r="X119" s="6"/>
+      <c r="Y119" s="6"/>
+      <c r="Z119" s="6"/>
+      <c r="AA119" s="6"/>
+      <c r="AB119" s="6"/>
     </row>
     <row r="120" spans="1:28">
       <c r="A120" s="8" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
-      <c r="F120" s="14"/>
+      <c r="F120" s="14" t="s">
+        <v>215</v>
+      </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -5874,9 +6363,15 @@
       <c r="AB120" s="8"/>
     </row>
     <row r="121" spans="1:28">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
+      <c r="A121" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="14"/>
@@ -5903,51 +6398,57 @@
       <c r="AA121" s="8"/>
       <c r="AB121" s="8"/>
     </row>
-    <row r="122" spans="1:28" ht="26.4">
-      <c r="A122" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
-      <c r="U122" s="5"/>
-      <c r="V122" s="5"/>
-      <c r="W122" s="5"/>
-      <c r="X122" s="5"/>
-      <c r="Y122" s="5"/>
-      <c r="Z122" s="5"/>
-      <c r="AA122" s="5"/>
-      <c r="AB122" s="5"/>
+    <row r="122" spans="1:28">
+      <c r="A122" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8"/>
+      <c r="S122" s="8"/>
+      <c r="T122" s="8"/>
+      <c r="U122" s="8"/>
+      <c r="V122" s="8"/>
+      <c r="W122" s="8"/>
+      <c r="X122" s="8"/>
+      <c r="Y122" s="8"/>
+      <c r="Z122" s="8"/>
+      <c r="AA122" s="8"/>
+      <c r="AB122" s="8"/>
     </row>
     <row r="123" spans="1:28">
       <c r="A123" s="8" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C123" s="9"/>
+        <v>221</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
-      <c r="F123" s="20"/>
+      <c r="F123" s="14" t="s">
+        <v>335</v>
+      </c>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -5973,19 +6474,17 @@
     </row>
     <row r="124" spans="1:28">
       <c r="A124" s="8" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>26</v>
+        <v>223</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
-      <c r="F124" s="20" t="s">
-        <v>239</v>
-      </c>
+      <c r="F124" s="14"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -6011,19 +6510,17 @@
     </row>
     <row r="125" spans="1:28">
       <c r="A125" s="8" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>26</v>
+        <v>225</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
-      <c r="F125" s="14" t="s">
-        <v>242</v>
-      </c>
+      <c r="F125" s="14"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -6049,19 +6546,17 @@
     </row>
     <row r="126" spans="1:28">
       <c r="A126" s="8" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>26</v>
+        <v>227</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
-      <c r="F126" s="14" t="s">
-        <v>245</v>
-      </c>
+      <c r="F126" s="14"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
@@ -6086,20 +6581,12 @@
       <c r="AB126" s="8"/>
     </row>
     <row r="127" spans="1:28">
-      <c r="A127" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
-      <c r="F127" s="16" t="s">
-        <v>248</v>
-      </c>
+      <c r="F127" s="14"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
@@ -6123,43 +6610,51 @@
       <c r="AA127" s="8"/>
       <c r="AB127" s="8"/>
     </row>
-    <row r="128" spans="1:28">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="8"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="8"/>
-      <c r="S128" s="8"/>
-      <c r="T128" s="8"/>
-      <c r="U128" s="8"/>
-      <c r="V128" s="8"/>
-      <c r="W128" s="8"/>
-      <c r="X128" s="8"/>
-      <c r="Y128" s="8"/>
-      <c r="Z128" s="8"/>
-      <c r="AA128" s="8"/>
-      <c r="AB128" s="8"/>
+    <row r="128" spans="1:28" ht="25.5">
+      <c r="A128" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
+      <c r="AB128" s="5"/>
     </row>
     <row r="129" spans="1:28">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="9"/>
+      <c r="A129" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="8"/>
       <c r="E129" s="8"/>
-      <c r="F129" s="14"/>
+      <c r="F129" s="20"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -6184,12 +6679,20 @@
       <c r="AB129" s="8"/>
     </row>
     <row r="130" spans="1:28">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="9"/>
+      <c r="A130" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="8"/>
       <c r="E130" s="8"/>
-      <c r="F130" s="14"/>
+      <c r="F130" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -6214,12 +6717,20 @@
       <c r="AB130" s="8"/>
     </row>
     <row r="131" spans="1:28">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="9"/>
+      <c r="A131" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="8"/>
       <c r="E131" s="8"/>
-      <c r="F131" s="14"/>
+      <c r="F131" s="14" t="s">
+        <v>237</v>
+      </c>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
@@ -6244,53 +6755,57 @@
       <c r="AB131" s="8"/>
     </row>
     <row r="132" spans="1:28">
-      <c r="A132" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="2"/>
-      <c r="S132" s="2"/>
-      <c r="T132" s="2"/>
-      <c r="U132" s="2"/>
-      <c r="V132" s="2"/>
-      <c r="W132" s="2"/>
-      <c r="X132" s="2"/>
-      <c r="Y132" s="2"/>
-      <c r="Z132" s="2"/>
-      <c r="AA132" s="2"/>
-      <c r="AB132" s="2"/>
-    </row>
-    <row r="133" spans="1:28" ht="26.4">
+      <c r="A132" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+      <c r="Q132" s="8"/>
+      <c r="R132" s="8"/>
+      <c r="S132" s="8"/>
+      <c r="T132" s="8"/>
+      <c r="U132" s="8"/>
+      <c r="V132" s="8"/>
+      <c r="W132" s="8"/>
+      <c r="X132" s="8"/>
+      <c r="Y132" s="8"/>
+      <c r="Z132" s="8"/>
+      <c r="AA132" s="8"/>
+      <c r="AB132" s="8"/>
+    </row>
+    <row r="133" spans="1:28">
       <c r="A133" s="8" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133" s="9"/>
+        <v>242</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="8"/>
       <c r="E133" s="8"/>
-      <c r="F133" s="14" t="s">
-        <v>251</v>
+      <c r="F133" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -6316,51 +6831,72 @@
       <c r="AB133" s="8"/>
     </row>
     <row r="134" spans="1:28">
-      <c r="A134" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="16" t="s">
-        <v>253</v>
-      </c>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+      <c r="Q134" s="8"/>
+      <c r="R134" s="8"/>
+      <c r="S134" s="8"/>
+      <c r="T134" s="8"/>
+      <c r="U134" s="8"/>
+      <c r="V134" s="8"/>
+      <c r="W134" s="8"/>
+      <c r="X134" s="8"/>
+      <c r="Y134" s="8"/>
+      <c r="Z134" s="8"/>
+      <c r="AA134" s="8"/>
+      <c r="AB134" s="8"/>
     </row>
     <row r="135" spans="1:28">
-      <c r="A135" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" s="7"/>
-      <c r="F135" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="136" spans="1:28" ht="26.4">
-      <c r="A136" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+      <c r="Q135" s="8"/>
+      <c r="R135" s="8"/>
+      <c r="S135" s="8"/>
+      <c r="T135" s="8"/>
+      <c r="U135" s="8"/>
+      <c r="V135" s="8"/>
+      <c r="W135" s="8"/>
+      <c r="X135" s="8"/>
+      <c r="Y135" s="8"/>
+      <c r="Z135" s="8"/>
+      <c r="AA135" s="8"/>
+      <c r="AB135" s="8"/>
+    </row>
+    <row r="136" spans="1:28">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
       <c r="D136" s="9"/>
       <c r="E136" s="8"/>
-      <c r="F136" s="14" t="s">
-        <v>258</v>
-      </c>
+      <c r="F136" s="14"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -6385,20 +6921,12 @@
       <c r="AB136" s="8"/>
     </row>
     <row r="137" spans="1:28">
-      <c r="A137" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
       <c r="D137" s="9"/>
       <c r="E137" s="8"/>
-      <c r="F137" s="14" t="s">
-        <v>260</v>
-      </c>
+      <c r="F137" s="14"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -6423,57 +6951,53 @@
       <c r="AB137" s="8"/>
     </row>
     <row r="138" spans="1:28">
-      <c r="A138" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
-      <c r="K138" s="8"/>
-      <c r="L138" s="8"/>
-      <c r="M138" s="8"/>
-      <c r="N138" s="8"/>
-      <c r="O138" s="8"/>
-      <c r="P138" s="8"/>
-      <c r="Q138" s="8"/>
-      <c r="R138" s="8"/>
-      <c r="S138" s="8"/>
-      <c r="T138" s="8"/>
-      <c r="U138" s="8"/>
-      <c r="V138" s="8"/>
-      <c r="W138" s="8"/>
-      <c r="X138" s="8"/>
-      <c r="Y138" s="8"/>
-      <c r="Z138" s="8"/>
-      <c r="AA138" s="8"/>
-      <c r="AB138" s="8"/>
-    </row>
-    <row r="139" spans="1:28">
+      <c r="A138" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2"/>
+      <c r="V138" s="2"/>
+      <c r="W138" s="2"/>
+      <c r="X138" s="2"/>
+      <c r="Y138" s="2"/>
+      <c r="Z138" s="2"/>
+      <c r="AA138" s="2"/>
+      <c r="AB138" s="2"/>
+    </row>
+    <row r="139" spans="1:28" ht="25.5">
       <c r="A139" s="8" t="s">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="8"/>
       <c r="F139" s="14" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -6499,93 +7023,50 @@
       <c r="AB139" s="8"/>
     </row>
     <row r="140" spans="1:28">
-      <c r="A140" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D140" s="9"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
-      <c r="N140" s="8"/>
-      <c r="O140" s="8"/>
-      <c r="P140" s="8"/>
-      <c r="Q140" s="8"/>
-      <c r="R140" s="8"/>
-      <c r="S140" s="8"/>
-      <c r="T140" s="8"/>
-      <c r="U140" s="8"/>
-      <c r="V140" s="8"/>
-      <c r="W140" s="8"/>
-      <c r="X140" s="8"/>
-      <c r="Y140" s="8"/>
-      <c r="Z140" s="8"/>
-      <c r="AA140" s="8"/>
-      <c r="AB140" s="8"/>
+      <c r="A140" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="16" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="141" spans="1:28">
-      <c r="A141" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D141" s="9"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
-      <c r="N141" s="8"/>
-      <c r="O141" s="8"/>
-      <c r="P141" s="8"/>
-      <c r="Q141" s="8"/>
-      <c r="R141" s="8"/>
-      <c r="S141" s="8"/>
-      <c r="T141" s="8"/>
-      <c r="U141" s="8"/>
-      <c r="V141" s="8"/>
-      <c r="W141" s="8"/>
-      <c r="X141" s="8"/>
-      <c r="Y141" s="8"/>
-      <c r="Z141" s="8"/>
-      <c r="AA141" s="8"/>
-      <c r="AB141" s="8"/>
-    </row>
-    <row r="142" spans="1:28" ht="26.4">
+      <c r="A141" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="F141" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" ht="25.5">
       <c r="A142" s="8" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="8"/>
       <c r="F142" s="14" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
@@ -6612,10 +7093,10 @@
     </row>
     <row r="143" spans="1:28">
       <c r="A143" s="8" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>26</v>
@@ -6623,7 +7104,7 @@
       <c r="D143" s="9"/>
       <c r="E143" s="8"/>
       <c r="F143" s="14" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -6648,20 +7129,20 @@
       <c r="AA143" s="8"/>
       <c r="AB143" s="8"/>
     </row>
-    <row r="144" spans="1:28" ht="26.4">
-      <c r="A144" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>136</v>
+    <row r="144" spans="1:28">
+      <c r="A144" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="8"/>
-      <c r="F144" s="14" t="s">
-        <v>279</v>
+      <c r="F144" s="19" t="s">
+        <v>339</v>
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
@@ -6687,12 +7168,20 @@
       <c r="AB144" s="8"/>
     </row>
     <row r="145" spans="1:28">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
+      <c r="A145" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D145" s="9"/>
       <c r="E145" s="8"/>
-      <c r="F145" s="14"/>
+      <c r="F145" s="14" t="s">
+        <v>258</v>
+      </c>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -6717,12 +7206,20 @@
       <c r="AB145" s="8"/>
     </row>
     <row r="146" spans="1:28">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
+      <c r="A146" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D146" s="9"/>
       <c r="E146" s="8"/>
-      <c r="F146" s="14"/>
+      <c r="F146" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
@@ -6747,12 +7244,20 @@
       <c r="AB146" s="8"/>
     </row>
     <row r="147" spans="1:28">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
+      <c r="A147" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D147" s="9"/>
       <c r="E147" s="8"/>
-      <c r="F147" s="14"/>
+      <c r="F147" s="14" t="s">
+        <v>263</v>
+      </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
@@ -6777,53 +7282,55 @@
       <c r="AB147" s="8"/>
     </row>
     <row r="148" spans="1:28">
-      <c r="A148" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
-      <c r="Q148" s="2"/>
-      <c r="R148" s="2"/>
-      <c r="S148" s="2"/>
-      <c r="T148" s="2"/>
-      <c r="U148" s="2"/>
-      <c r="V148" s="2"/>
-      <c r="W148" s="2"/>
-      <c r="X148" s="2"/>
-      <c r="Y148" s="2"/>
-      <c r="Z148" s="2"/>
-      <c r="AA148" s="2"/>
-      <c r="AB148" s="2"/>
-    </row>
-    <row r="149" spans="1:28" ht="66">
+      <c r="A148" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+      <c r="U148" s="8"/>
+      <c r="V148" s="8"/>
+      <c r="W148" s="8"/>
+      <c r="X148" s="8"/>
+      <c r="Y148" s="8"/>
+      <c r="Z148" s="8"/>
+      <c r="AA148" s="8"/>
+      <c r="AB148" s="8"/>
+    </row>
+    <row r="149" spans="1:28" ht="25.5">
       <c r="A149" s="8" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D149" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D149" s="9"/>
       <c r="E149" s="8"/>
       <c r="F149" s="14" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -6848,20 +7355,20 @@
       <c r="AA149" s="8"/>
       <c r="AB149" s="8"/>
     </row>
-    <row r="150" spans="1:28" ht="52.8">
+    <row r="150" spans="1:28">
       <c r="A150" s="8" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D150" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D150" s="9"/>
       <c r="E150" s="8"/>
       <c r="F150" s="14" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
@@ -6886,20 +7393,20 @@
       <c r="AA150" s="8"/>
       <c r="AB150" s="8"/>
     </row>
-    <row r="151" spans="1:28" ht="39.6">
+    <row r="151" spans="1:28" ht="25.5">
       <c r="A151" s="8" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D151" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="D151" s="9"/>
       <c r="E151" s="8"/>
       <c r="F151" s="14" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -6924,21 +7431,13 @@
       <c r="AA151" s="8"/>
       <c r="AB151" s="8"/>
     </row>
-    <row r="152" spans="1:28" ht="39.6">
-      <c r="A152" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D152" s="8"/>
+    <row r="152" spans="1:28">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="9"/>
       <c r="E152" s="8"/>
-      <c r="F152" s="14" t="s">
-        <v>292</v>
-      </c>
+      <c r="F152" s="14"/>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
@@ -6966,7 +7465,7 @@
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
+      <c r="D153" s="9"/>
       <c r="E153" s="8"/>
       <c r="F153" s="14"/>
       <c r="G153" s="8"/>
@@ -6996,7 +7495,7 @@
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
+      <c r="D154" s="9"/>
       <c r="E154" s="8"/>
       <c r="F154" s="14"/>
       <c r="G154" s="8"/>
@@ -7023,42 +7522,54 @@
       <c r="AB154" s="8"/>
     </row>
     <row r="155" spans="1:28">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
-      <c r="K155" s="8"/>
-      <c r="L155" s="8"/>
-      <c r="M155" s="8"/>
-      <c r="N155" s="8"/>
-      <c r="O155" s="8"/>
-      <c r="P155" s="8"/>
-      <c r="Q155" s="8"/>
-      <c r="R155" s="8"/>
-      <c r="S155" s="8"/>
-      <c r="T155" s="8"/>
-      <c r="U155" s="8"/>
-      <c r="V155" s="8"/>
-      <c r="W155" s="8"/>
-      <c r="X155" s="8"/>
-      <c r="Y155" s="8"/>
-      <c r="Z155" s="8"/>
-      <c r="AA155" s="8"/>
-      <c r="AB155" s="8"/>
-    </row>
-    <row r="156" spans="1:28">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
+      <c r="A155" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2"/>
+      <c r="V155" s="2"/>
+      <c r="W155" s="2"/>
+      <c r="X155" s="2"/>
+      <c r="Y155" s="2"/>
+      <c r="Z155" s="2"/>
+      <c r="AA155" s="2"/>
+      <c r="AB155" s="2"/>
+    </row>
+    <row r="156" spans="1:28" ht="63.75">
+      <c r="A156" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
-      <c r="F156" s="14"/>
+      <c r="F156" s="14" t="s">
+        <v>278</v>
+      </c>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
@@ -7082,13 +7593,21 @@
       <c r="AA156" s="8"/>
       <c r="AB156" s="8"/>
     </row>
-    <row r="157" spans="1:28">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
+    <row r="157" spans="1:28" ht="51">
+      <c r="A157" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="14"/>
+      <c r="F157" s="14" t="s">
+        <v>281</v>
+      </c>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
@@ -7112,61 +7631,266 @@
       <c r="AA157" s="8"/>
       <c r="AB157" s="8"/>
     </row>
-    <row r="158" spans="1:28">
-      <c r="F158" s="23"/>
-    </row>
-    <row r="159" spans="1:28">
-      <c r="F159" s="23"/>
+    <row r="158" spans="1:28" ht="38.25">
+      <c r="A158" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="8"/>
+      <c r="N158" s="8"/>
+      <c r="O158" s="8"/>
+      <c r="P158" s="8"/>
+      <c r="Q158" s="8"/>
+      <c r="R158" s="8"/>
+      <c r="S158" s="8"/>
+      <c r="T158" s="8"/>
+      <c r="U158" s="8"/>
+      <c r="V158" s="8"/>
+      <c r="W158" s="8"/>
+      <c r="X158" s="8"/>
+      <c r="Y158" s="8"/>
+      <c r="Z158" s="8"/>
+      <c r="AA158" s="8"/>
+      <c r="AB158" s="8"/>
+    </row>
+    <row r="159" spans="1:28" ht="38.25">
+      <c r="A159" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="8"/>
+      <c r="N159" s="8"/>
+      <c r="O159" s="8"/>
+      <c r="P159" s="8"/>
+      <c r="Q159" s="8"/>
+      <c r="R159" s="8"/>
+      <c r="S159" s="8"/>
+      <c r="T159" s="8"/>
+      <c r="U159" s="8"/>
+      <c r="V159" s="8"/>
+      <c r="W159" s="8"/>
+      <c r="X159" s="8"/>
+      <c r="Y159" s="8"/>
+      <c r="Z159" s="8"/>
+      <c r="AA159" s="8"/>
+      <c r="AB159" s="8"/>
     </row>
     <row r="160" spans="1:28">
-      <c r="F160" s="23"/>
-    </row>
-    <row r="161" spans="6:6">
-      <c r="F161" s="23"/>
-    </row>
-    <row r="162" spans="6:6">
-      <c r="F162" s="23"/>
-    </row>
-    <row r="163" spans="6:6">
-      <c r="F163" s="23"/>
-    </row>
-    <row r="164" spans="6:6">
-      <c r="F164" s="23"/>
-    </row>
-    <row r="165" spans="6:6">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="8"/>
+      <c r="N160" s="8"/>
+      <c r="O160" s="8"/>
+      <c r="P160" s="8"/>
+      <c r="Q160" s="8"/>
+      <c r="R160" s="8"/>
+      <c r="S160" s="8"/>
+      <c r="T160" s="8"/>
+      <c r="U160" s="8"/>
+      <c r="V160" s="8"/>
+      <c r="W160" s="8"/>
+      <c r="X160" s="8"/>
+      <c r="Y160" s="8"/>
+      <c r="Z160" s="8"/>
+      <c r="AA160" s="8"/>
+      <c r="AB160" s="8"/>
+    </row>
+    <row r="161" spans="1:28">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="8"/>
+      <c r="N161" s="8"/>
+      <c r="O161" s="8"/>
+      <c r="P161" s="8"/>
+      <c r="Q161" s="8"/>
+      <c r="R161" s="8"/>
+      <c r="S161" s="8"/>
+      <c r="T161" s="8"/>
+      <c r="U161" s="8"/>
+      <c r="V161" s="8"/>
+      <c r="W161" s="8"/>
+      <c r="X161" s="8"/>
+      <c r="Y161" s="8"/>
+      <c r="Z161" s="8"/>
+      <c r="AA161" s="8"/>
+      <c r="AB161" s="8"/>
+    </row>
+    <row r="162" spans="1:28">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="8"/>
+      <c r="N162" s="8"/>
+      <c r="O162" s="8"/>
+      <c r="P162" s="8"/>
+      <c r="Q162" s="8"/>
+      <c r="R162" s="8"/>
+      <c r="S162" s="8"/>
+      <c r="T162" s="8"/>
+      <c r="U162" s="8"/>
+      <c r="V162" s="8"/>
+      <c r="W162" s="8"/>
+      <c r="X162" s="8"/>
+      <c r="Y162" s="8"/>
+      <c r="Z162" s="8"/>
+      <c r="AA162" s="8"/>
+      <c r="AB162" s="8"/>
+    </row>
+    <row r="163" spans="1:28">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="8"/>
+      <c r="N163" s="8"/>
+      <c r="O163" s="8"/>
+      <c r="P163" s="8"/>
+      <c r="Q163" s="8"/>
+      <c r="R163" s="8"/>
+      <c r="S163" s="8"/>
+      <c r="T163" s="8"/>
+      <c r="U163" s="8"/>
+      <c r="V163" s="8"/>
+      <c r="W163" s="8"/>
+      <c r="X163" s="8"/>
+      <c r="Y163" s="8"/>
+      <c r="Z163" s="8"/>
+      <c r="AA163" s="8"/>
+      <c r="AB163" s="8"/>
+    </row>
+    <row r="164" spans="1:28">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="8"/>
+      <c r="M164" s="8"/>
+      <c r="N164" s="8"/>
+      <c r="O164" s="8"/>
+      <c r="P164" s="8"/>
+      <c r="Q164" s="8"/>
+      <c r="R164" s="8"/>
+      <c r="S164" s="8"/>
+      <c r="T164" s="8"/>
+      <c r="U164" s="8"/>
+      <c r="V164" s="8"/>
+      <c r="W164" s="8"/>
+      <c r="X164" s="8"/>
+      <c r="Y164" s="8"/>
+      <c r="Z164" s="8"/>
+      <c r="AA164" s="8"/>
+      <c r="AB164" s="8"/>
+    </row>
+    <row r="165" spans="1:28">
       <c r="F165" s="23"/>
     </row>
-    <row r="166" spans="6:6">
+    <row r="166" spans="1:28">
       <c r="F166" s="23"/>
     </row>
-    <row r="167" spans="6:6">
+    <row r="167" spans="1:28">
       <c r="F167" s="23"/>
     </row>
-    <row r="168" spans="6:6">
+    <row r="168" spans="1:28">
       <c r="F168" s="23"/>
     </row>
-    <row r="169" spans="6:6">
+    <row r="169" spans="1:28">
       <c r="F169" s="23"/>
     </row>
-    <row r="170" spans="6:6">
+    <row r="170" spans="1:28">
       <c r="F170" s="23"/>
     </row>
-    <row r="171" spans="6:6">
+    <row r="171" spans="1:28">
       <c r="F171" s="23"/>
     </row>
-    <row r="172" spans="6:6">
+    <row r="172" spans="1:28">
       <c r="F172" s="23"/>
     </row>
-    <row r="173" spans="6:6">
+    <row r="173" spans="1:28">
       <c r="F173" s="23"/>
     </row>
-    <row r="174" spans="6:6">
+    <row r="174" spans="1:28">
       <c r="F174" s="23"/>
     </row>
-    <row r="175" spans="6:6">
+    <row r="175" spans="1:28">
       <c r="F175" s="23"/>
     </row>
-    <row r="176" spans="6:6">
+    <row r="176" spans="1:28">
       <c r="F176" s="23"/>
     </row>
     <row r="177" spans="6:6">
@@ -7229,7 +7953,31 @@
     <row r="196" spans="6:6">
       <c r="F196" s="23"/>
     </row>
+    <row r="197" spans="6:6">
+      <c r="F197" s="23"/>
+    </row>
+    <row r="198" spans="6:6">
+      <c r="F198" s="23"/>
+    </row>
+    <row r="199" spans="6:6">
+      <c r="F199" s="23"/>
+    </row>
+    <row r="200" spans="6:6">
+      <c r="F200" s="23"/>
+    </row>
+    <row r="201" spans="6:6">
+      <c r="F201" s="23"/>
+    </row>
+    <row r="202" spans="6:6">
+      <c r="F202" s="23"/>
+    </row>
+    <row r="203" spans="6:6">
+      <c r="F203" s="23"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F49:I57"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/FTLSupporter adatszerkezetek.xlsx
+++ b/doc/FTLSupporter adatszerkezetek.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="353">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -539,9 +539,6 @@
   </si>
   <si>
     <t>T1Cost</t>
-  </si>
-  <si>
-    <t>I.túra időtartam</t>
   </si>
   <si>
     <t>T1Duration</t>
@@ -1423,9 +1420,6 @@
     </r>
   </si>
   <si>
-    <t>AETR adatok</t>
-  </si>
-  <si>
     <t xml:space="preserve">RemainingDriveTime </t>
   </si>
   <si>
@@ -1479,6 +1473,66 @@
   <si>
     <t>kompenzációként adandó pihenőidő 
 (a soron következő pihenőidőbe számoljuk be)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vezetés időtartama +pihenőidő + nyitásra várakozási idő + kiszolgálási idő </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vezetés időtartama +pihenőidő </t>
+  </si>
+  <si>
+    <t>Vezetés időtartama</t>
+  </si>
+  <si>
+    <t>Pihenőidő</t>
+  </si>
+  <si>
+    <t>RestDuration</t>
+  </si>
+  <si>
+    <t>A teljesítés során felhasznált pihenőidő</t>
+  </si>
+  <si>
+    <t>sofőr hátralevő heti pihenőideje</t>
+  </si>
+  <si>
+    <t>sofőr hátralevő heti vezetési ideje</t>
+  </si>
+  <si>
+    <t>I.túra teljes időtartam</t>
+  </si>
+  <si>
+    <t>I.túra felhasznált pihenőidő</t>
+  </si>
+  <si>
+    <t>T1Rest</t>
+  </si>
+  <si>
+    <t>Felhasznált ösz pihenőidő</t>
+  </si>
+  <si>
+    <t>Felhasznált összes pihenőidő</t>
+  </si>
+  <si>
+    <t>Átállás felhasznált pihenőidő</t>
+  </si>
+  <si>
+    <t>Vezetés időtartama +pihenőidő + nyitásra várakozási idő</t>
+  </si>
+  <si>
+    <t>RelRest</t>
+  </si>
+  <si>
+    <t>II.túra felhasznált pihenőidő</t>
+  </si>
+  <si>
+    <t>T2Rest</t>
+  </si>
+  <si>
+    <t>Visszatérés felhasznált pihenőidő</t>
+  </si>
+  <si>
+    <t>RetRest</t>
   </si>
   <si>
     <r>
@@ -1490,8 +1544,29 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>Az input adatok alapján két vezetés-pihenés ciklussal tudunk számolni. A
-1.ciklus:</t>
+      <t>Az input adatok alapján két vezetés-pihenés ciklussal tudunk számolni.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>1.ciklus:</t>
     </r>
     <r>
       <rPr>
@@ -1520,26 +1595,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> MIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">(RemainingDriveTime, RemainingTimeToStartDailyRes,RemainingWeeklyDriveTime,RemainingTwoWeeklyDriveTime)
+      <t xml:space="preserve">: MIN(RemainingDriveTime, RemainingTimeToStartDailyRes,RemainingWeeklyDriveTime,RemainingTwoWeeklyDriveTime)
 </t>
     </r>
     <r>
@@ -1550,7 +1606,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>pihenőidő</t>
+      <t>pihenőidő :</t>
     </r>
     <r>
       <rPr>
@@ -1559,52 +1615,14 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>MIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>(  RemainingRestTime, RemainingDailyRestTime, RemainingWeeklyRestTime, RemainingTwoWeeklyRestTime)+</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>RemainingRestTimeToCompensate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">MIN(  RemainingRestTime, RemainingDailyRestTime, RemainingWeeklyRestTime, RemainingTwoWeeklyRestTime)+RemainingRestTimeToCompensate
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -1638,45 +1656,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> MIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">( (RemainingDailyDriveTime- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>1.ciklus vezetési idő</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">), RemainingWeeklyDriveTime, RemainingTwoWeeklyDriveTime)
+      <t xml:space="preserve">: MIN( (RemainingDailyDriveTime- 1.ciklus vezetési idő), RemainingWeeklyDriveTime, RemainingTwoWeeklyDriveTime, RemainingTimeToStartDailyRes)
 </t>
     </r>
     <r>
@@ -1696,17 +1676,17 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">: </t>
+      <t xml:space="preserve">: IF RemainingDailyRestTime-1.ciklus pihenőidő &gt;0  THEN  RemainingDailyRestTime-1.ciklus pihenőidő ELSE MIN( RemainingWeeklyRestTime, RemainingTwoWeeklyRestTime) </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>IF</t>
+      <t>A RemainingRestTime nem számít bele a RemainingDailyRestTime időbe.</t>
     </r>
     <r>
       <rPr>
@@ -1715,52 +1695,14 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve"> RemainingDailyRestTime-1.ciklus pihenőidő &gt;0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">  THEN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> RemainingDailyRestTime-1.ciklus pihenőidő </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">ELSE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">MIN( RemainingWeeklyRestTime, RemainingTwoWeeklyRestTime)
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -1785,7 +1727,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>vezetési idő:</t>
+      <t>vezetési idő</t>
     </r>
     <r>
       <rPr>
@@ -1794,7 +1736,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve"> MIN( RemainingWeeklyDriveTime, RemainingTwoWeeklyDriveTime)-2.ciklus vezetési idő
+      <t xml:space="preserve">: MIN( RemainingWeeklyDriveTime, RemainingTwoWeeklyDriveTime)-2.ciklus vezetési idő
 </t>
     </r>
     <r>
@@ -1805,7 +1747,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>pihenőidő</t>
+      <t>pihenőidő :</t>
     </r>
     <r>
       <rPr>
@@ -1814,7 +1756,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve"> : nem számnolható
+      <t xml:space="preserve"> nem számolható
 </t>
     </r>
     <r>
@@ -1826,7 +1768,18 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>Fontos megjegyzés:</t>
+      <t xml:space="preserve">Fontos megjegyzések:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
@@ -1835,39 +1788,66 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>minden változót csak akkor veszünk figyelembe, ha értéke nagyobb, mint nulla. Ha pl a RemainingTwoWeeklyDriveTime értéke nulla, akkor az nem vesz részt a számításokban)</t>
+      <t xml:space="preserve">minden változót csak akkor veszünk figyelembe, ha értéke nagyobb, mint nulla. Ha pl a RemainingTwoWeeklyDriveTime értéke nulla, akkor az nem vesz részt a számításokban)
+</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Vezetés időtartama +pihenőidő + nyitásra várakozási idő + kiszolgálási idő </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vezetés időtartama +pihenőidő </t>
-  </si>
-  <si>
-    <t>Vezetés időtartama</t>
-  </si>
-  <si>
-    <t>Pihenőidő</t>
-  </si>
-  <si>
-    <t>RestDuration</t>
-  </si>
-  <si>
-    <t>A teljesítés során felhasznált pihenőidő</t>
-  </si>
-  <si>
-    <t>sofőr hátralevő heti pihenőideje</t>
-  </si>
-  <si>
-    <t>sofőr hátralevő heti vezetési ideje</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>.Az FTLSupport percben számol. A kapott másodperekbők minden megkezdett perc számít.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>AETR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> adatok </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(másodpercben)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1944,8 +1924,23 @@
       <charset val="238"/>
     </font>
     <font>
-      <i/>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -2094,10 +2089,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2380,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB203"/>
+  <dimension ref="A1:AB207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49:I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2718,10 +2713,10 @@
     </row>
     <row r="10" spans="1:28" ht="76.5">
       <c r="A10" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>26</v>
@@ -2733,7 +2728,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2853,10 +2848,10 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>106</v>
@@ -2865,7 +2860,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -3193,10 +3188,10 @@
     </row>
     <row r="27" spans="1:28" ht="51">
       <c r="A27" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>11</v>
@@ -3206,7 +3201,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -3233,10 +3228,10 @@
     </row>
     <row r="28" spans="1:28" ht="25.5">
       <c r="A28" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>11</v>
@@ -3246,7 +3241,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -3385,7 +3380,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>72</v>
@@ -3398,7 +3393,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -3438,7 +3433,7 @@
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -3779,10 +3774,10 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>26</v>
@@ -3792,7 +3787,7 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -3819,10 +3814,10 @@
     </row>
     <row r="45" spans="1:28" ht="242.25">
       <c r="A45" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>134</v>
@@ -3832,7 +3827,7 @@
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -3859,10 +3854,10 @@
     </row>
     <row r="46" spans="1:28" ht="25.5">
       <c r="A46" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>134</v>
@@ -3872,7 +3867,7 @@
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -3928,8 +3923,8 @@
       <c r="AB47" s="8"/>
     </row>
     <row r="48" spans="1:28">
-      <c r="A48" s="31" t="s">
-        <v>314</v>
+      <c r="A48" s="30" t="s">
+        <v>352</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3961,10 +3956,10 @@
     </row>
     <row r="49" spans="1:28" ht="51.75" customHeight="1">
       <c r="A49" s="29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
@@ -3973,12 +3968,12 @@
         <v>12</v>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
+      <c r="F49" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -4001,10 +3996,10 @@
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="29" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
@@ -4013,10 +4008,10 @@
         <v>15</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -4039,10 +4034,10 @@
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="29" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
@@ -4051,10 +4046,10 @@
         <v>15</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
@@ -4077,10 +4072,10 @@
     </row>
     <row r="52" spans="1:28" ht="17.25" customHeight="1">
       <c r="A52" s="29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
@@ -4089,10 +4084,10 @@
         <v>15</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -4115,10 +4110,10 @@
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1">
       <c r="A53" s="29" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
@@ -4127,10 +4122,10 @@
         <v>15</v>
       </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
@@ -4153,10 +4148,10 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
@@ -4165,10 +4160,10 @@
         <v>15</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -4191,10 +4186,10 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
@@ -4203,10 +4198,10 @@
         <v>15</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
@@ -4229,10 +4224,10 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="B56" s="29" t="s">
         <v>328</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>330</v>
       </c>
       <c r="C56" t="s">
         <v>26</v>
@@ -4241,10 +4236,10 @@
         <v>15</v>
       </c>
       <c r="E56" s="8"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
@@ -4267,10 +4262,10 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>329</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>331</v>
       </c>
       <c r="C57" t="s">
         <v>26</v>
@@ -4279,10 +4274,10 @@
         <v>15</v>
       </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -4305,10 +4300,10 @@
     </row>
     <row r="58" spans="1:28" ht="38.25">
       <c r="A58" s="28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
@@ -4317,10 +4312,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="8"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -4418,7 +4413,7 @@
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -4538,7 +4533,7 @@
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -5574,10 +5569,10 @@
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="8" t="s">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>172</v>
+        <v>341</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>26</v>
@@ -5585,7 +5580,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="14" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -5612,18 +5607,18 @@
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="8" t="s">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="14" t="s">
-        <v>175</v>
+        <v>331</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -5650,17 +5645,19 @@
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
-      <c r="F101" s="14"/>
+      <c r="F101" s="14" t="s">
+        <v>174</v>
+      </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
@@ -5684,15 +5681,15 @@
       <c r="AA101" s="8"/>
       <c r="AB101" s="8"/>
     </row>
-    <row r="102" spans="1:28" ht="25.5">
+    <row r="102" spans="1:28">
       <c r="A102" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -5720,80 +5717,80 @@
       <c r="AA102" s="8"/>
       <c r="AB102" s="8"/>
     </row>
-    <row r="103" spans="1:28">
-      <c r="A103" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="6"/>
-      <c r="T103" s="6"/>
-      <c r="U103" s="6"/>
-      <c r="V103" s="6"/>
-      <c r="W103" s="6"/>
-      <c r="X103" s="6"/>
-      <c r="Y103" s="6"/>
-      <c r="Z103" s="6"/>
-      <c r="AA103" s="6"/>
-      <c r="AB103" s="6"/>
+    <row r="103" spans="1:28" ht="25.5">
+      <c r="A103" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="W103" s="8"/>
+      <c r="X103" s="8"/>
+      <c r="Y103" s="8"/>
+      <c r="Z103" s="8"/>
+      <c r="AA103" s="8"/>
+      <c r="AB103" s="8"/>
     </row>
     <row r="104" spans="1:28">
-      <c r="A104" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="8"/>
-      <c r="T104" s="8"/>
-      <c r="U104" s="8"/>
-      <c r="V104" s="8"/>
-      <c r="W104" s="8"/>
-      <c r="X104" s="8"/>
-      <c r="Y104" s="8"/>
-      <c r="Z104" s="8"/>
-      <c r="AA104" s="8"/>
-      <c r="AB104" s="8"/>
+      <c r="A104" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="6"/>
+      <c r="Y104" s="6"/>
+      <c r="Z104" s="6"/>
+      <c r="AA104" s="6"/>
+      <c r="AB104" s="6"/>
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>26</v>
@@ -5826,10 +5823,10 @@
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>26</v>
@@ -5862,19 +5859,17 @@
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
-      <c r="F107" s="16" t="s">
-        <v>334</v>
-      </c>
+      <c r="F107" s="14"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -5900,17 +5895,19 @@
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="8" t="s">
-        <v>190</v>
+        <v>344</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>191</v>
+        <v>346</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
-      <c r="F108" s="14"/>
+      <c r="F108" s="14" t="s">
+        <v>343</v>
+      </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -5936,17 +5933,19 @@
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
-      <c r="F109" s="14"/>
+      <c r="F109" s="16" t="s">
+        <v>345</v>
+      </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
@@ -5972,13 +5971,13 @@
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -6007,46 +6006,50 @@
       <c r="AB110" s="8"/>
     </row>
     <row r="111" spans="1:28">
-      <c r="A111" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="6"/>
-      <c r="T111" s="6"/>
-      <c r="U111" s="6"/>
-      <c r="V111" s="6"/>
-      <c r="W111" s="6"/>
-      <c r="X111" s="6"/>
-      <c r="Y111" s="6"/>
-      <c r="Z111" s="6"/>
-      <c r="AA111" s="6"/>
-      <c r="AB111" s="6"/>
+      <c r="A111" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="8"/>
+      <c r="X111" s="8"/>
+      <c r="Y111" s="8"/>
+      <c r="Z111" s="8"/>
+      <c r="AA111" s="8"/>
+      <c r="AB111" s="8"/>
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -6075,47 +6078,43 @@
       <c r="AB112" s="8"/>
     </row>
     <row r="113" spans="1:28">
-      <c r="A113" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
-      <c r="Q113" s="8"/>
-      <c r="R113" s="8"/>
-      <c r="S113" s="8"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="8"/>
-      <c r="V113" s="8"/>
-      <c r="W113" s="8"/>
-      <c r="X113" s="8"/>
-      <c r="Y113" s="8"/>
-      <c r="Z113" s="8"/>
-      <c r="AA113" s="8"/>
-      <c r="AB113" s="8"/>
+      <c r="A113" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="6"/>
+      <c r="AA113" s="6"/>
+      <c r="AB113" s="6"/>
     </row>
     <row r="114" spans="1:28">
       <c r="A114" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>26</v>
@@ -6148,19 +6147,17 @@
     </row>
     <row r="115" spans="1:28">
       <c r="A115" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="26" t="s">
-        <v>334</v>
-      </c>
+      <c r="F115" s="14"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
@@ -6186,13 +6183,13 @@
     </row>
     <row r="116" spans="1:28">
       <c r="A116" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -6222,17 +6219,19 @@
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>209</v>
+        <v>348</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
-      <c r="F117" s="14"/>
+      <c r="F117" s="14" t="s">
+        <v>342</v>
+      </c>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
@@ -6256,19 +6255,21 @@
       <c r="AA117" s="8"/>
       <c r="AB117" s="8"/>
     </row>
-    <row r="118" spans="1:28" ht="25.5">
+    <row r="118" spans="1:28">
       <c r="A118" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
-      <c r="F118" s="14"/>
+      <c r="F118" s="26" t="s">
+        <v>331</v>
+      </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -6293,52 +6294,54 @@
       <c r="AB118" s="8"/>
     </row>
     <row r="119" spans="1:28">
-      <c r="A119" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="6"/>
-      <c r="S119" s="6"/>
-      <c r="T119" s="6"/>
-      <c r="U119" s="6"/>
-      <c r="V119" s="6"/>
-      <c r="W119" s="6"/>
-      <c r="X119" s="6"/>
-      <c r="Y119" s="6"/>
-      <c r="Z119" s="6"/>
-      <c r="AA119" s="6"/>
-      <c r="AB119" s="6"/>
+      <c r="A119" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+      <c r="S119" s="8"/>
+      <c r="T119" s="8"/>
+      <c r="U119" s="8"/>
+      <c r="V119" s="8"/>
+      <c r="W119" s="8"/>
+      <c r="X119" s="8"/>
+      <c r="Y119" s="8"/>
+      <c r="Z119" s="8"/>
+      <c r="AA119" s="8"/>
+      <c r="AB119" s="8"/>
     </row>
     <row r="120" spans="1:28">
       <c r="A120" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
-      <c r="F120" s="14" t="s">
-        <v>215</v>
-      </c>
+      <c r="F120" s="14"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -6362,15 +6365,15 @@
       <c r="AA120" s="8"/>
       <c r="AB120" s="8"/>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" spans="1:28" ht="25.5">
       <c r="A121" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -6399,47 +6402,43 @@
       <c r="AB121" s="8"/>
     </row>
     <row r="122" spans="1:28">
-      <c r="A122" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
-      <c r="O122" s="8"/>
-      <c r="P122" s="8"/>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="8"/>
-      <c r="S122" s="8"/>
-      <c r="T122" s="8"/>
-      <c r="U122" s="8"/>
-      <c r="V122" s="8"/>
-      <c r="W122" s="8"/>
-      <c r="X122" s="8"/>
-      <c r="Y122" s="8"/>
-      <c r="Z122" s="8"/>
-      <c r="AA122" s="8"/>
-      <c r="AB122" s="8"/>
+      <c r="A122" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="6"/>
+      <c r="T122" s="6"/>
+      <c r="U122" s="6"/>
+      <c r="V122" s="6"/>
+      <c r="W122" s="6"/>
+      <c r="X122" s="6"/>
+      <c r="Y122" s="6"/>
+      <c r="Z122" s="6"/>
+      <c r="AA122" s="6"/>
+      <c r="AB122" s="6"/>
     </row>
     <row r="123" spans="1:28">
       <c r="A123" s="8" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>26</v>
@@ -6447,7 +6446,7 @@
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="14" t="s">
-        <v>335</v>
+        <v>214</v>
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -6474,13 +6473,13 @@
     </row>
     <row r="124" spans="1:28">
       <c r="A124" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -6510,13 +6509,13 @@
     </row>
     <row r="125" spans="1:28">
       <c r="A125" s="8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>20</v>
+        <v>218</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -6546,17 +6545,19 @@
     </row>
     <row r="126" spans="1:28">
       <c r="A126" s="8" t="s">
-        <v>226</v>
+        <v>349</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>227</v>
+        <v>350</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
-      <c r="F126" s="14"/>
+      <c r="F126" s="14" t="s">
+        <v>342</v>
+      </c>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
@@ -6581,12 +6582,20 @@
       <c r="AB126" s="8"/>
     </row>
     <row r="127" spans="1:28">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
+      <c r="A127" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
-      <c r="F127" s="14"/>
+      <c r="F127" s="14" t="s">
+        <v>332</v>
+      </c>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
@@ -6610,51 +6619,55 @@
       <c r="AA127" s="8"/>
       <c r="AB127" s="8"/>
     </row>
-    <row r="128" spans="1:28" ht="25.5">
-      <c r="A128" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-      <c r="S128" s="5"/>
-      <c r="T128" s="5"/>
-      <c r="U128" s="5"/>
-      <c r="V128" s="5"/>
-      <c r="W128" s="5"/>
-      <c r="X128" s="5"/>
-      <c r="Y128" s="5"/>
-      <c r="Z128" s="5"/>
-      <c r="AA128" s="5"/>
-      <c r="AB128" s="5"/>
+    <row r="128" spans="1:28">
+      <c r="A128" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="8"/>
+      <c r="R128" s="8"/>
+      <c r="S128" s="8"/>
+      <c r="T128" s="8"/>
+      <c r="U128" s="8"/>
+      <c r="V128" s="8"/>
+      <c r="W128" s="8"/>
+      <c r="X128" s="8"/>
+      <c r="Y128" s="8"/>
+      <c r="Z128" s="8"/>
+      <c r="AA128" s="8"/>
+      <c r="AB128" s="8"/>
     </row>
     <row r="129" spans="1:28">
       <c r="A129" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C129" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
-      <c r="F129" s="20"/>
+      <c r="F129" s="14"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -6680,19 +6693,17 @@
     </row>
     <row r="130" spans="1:28">
       <c r="A130" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>26</v>
+        <v>226</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
-      <c r="F130" s="20" t="s">
-        <v>234</v>
-      </c>
+      <c r="F130" s="14"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -6717,20 +6728,12 @@
       <c r="AB130" s="8"/>
     </row>
     <row r="131" spans="1:28">
-      <c r="A131" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
-      <c r="F131" s="14" t="s">
-        <v>237</v>
-      </c>
+      <c r="F131" s="14"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
@@ -6754,59 +6757,51 @@
       <c r="AA131" s="8"/>
       <c r="AB131" s="8"/>
     </row>
-    <row r="132" spans="1:28">
-      <c r="A132" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-      <c r="Q132" s="8"/>
-      <c r="R132" s="8"/>
-      <c r="S132" s="8"/>
-      <c r="T132" s="8"/>
-      <c r="U132" s="8"/>
-      <c r="V132" s="8"/>
-      <c r="W132" s="8"/>
-      <c r="X132" s="8"/>
-      <c r="Y132" s="8"/>
-      <c r="Z132" s="8"/>
-      <c r="AA132" s="8"/>
-      <c r="AB132" s="8"/>
+    <row r="132" spans="1:28" ht="25.5">
+      <c r="A132" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="5"/>
+      <c r="S132" s="5"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="5"/>
+      <c r="V132" s="5"/>
+      <c r="W132" s="5"/>
+      <c r="X132" s="5"/>
+      <c r="Y132" s="5"/>
+      <c r="Z132" s="5"/>
+      <c r="AA132" s="5"/>
+      <c r="AB132" s="5"/>
     </row>
     <row r="133" spans="1:28">
       <c r="A133" s="8" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C133" s="9"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
-      <c r="F133" s="16" t="s">
-        <v>243</v>
-      </c>
+      <c r="F133" s="20"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -6831,12 +6826,20 @@
       <c r="AB133" s="8"/>
     </row>
     <row r="134" spans="1:28">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="9"/>
+      <c r="A134" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="8"/>
       <c r="E134" s="8"/>
-      <c r="F134" s="14"/>
+      <c r="F134" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -6861,12 +6864,20 @@
       <c r="AB134" s="8"/>
     </row>
     <row r="135" spans="1:28">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="9"/>
+      <c r="A135" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="8"/>
       <c r="E135" s="8"/>
-      <c r="F135" s="14"/>
+      <c r="F135" s="14" t="s">
+        <v>236</v>
+      </c>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -6891,12 +6902,20 @@
       <c r="AB135" s="8"/>
     </row>
     <row r="136" spans="1:28">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="9"/>
+      <c r="A136" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="8"/>
       <c r="E136" s="8"/>
-      <c r="F136" s="14"/>
+      <c r="F136" s="14" t="s">
+        <v>239</v>
+      </c>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -6921,12 +6940,20 @@
       <c r="AB136" s="8"/>
     </row>
     <row r="137" spans="1:28">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="9"/>
+      <c r="A137" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="8"/>
       <c r="E137" s="8"/>
-      <c r="F137" s="14"/>
+      <c r="F137" s="16" t="s">
+        <v>242</v>
+      </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -6951,54 +6978,42 @@
       <c r="AB137" s="8"/>
     </row>
     <row r="138" spans="1:28">
-      <c r="A138" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="2"/>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
-      <c r="U138" s="2"/>
-      <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
-      <c r="X138" s="2"/>
-      <c r="Y138" s="2"/>
-      <c r="Z138" s="2"/>
-      <c r="AA138" s="2"/>
-      <c r="AB138" s="2"/>
-    </row>
-    <row r="139" spans="1:28" ht="25.5">
-      <c r="A139" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+      <c r="Q138" s="8"/>
+      <c r="R138" s="8"/>
+      <c r="S138" s="8"/>
+      <c r="T138" s="8"/>
+      <c r="U138" s="8"/>
+      <c r="V138" s="8"/>
+      <c r="W138" s="8"/>
+      <c r="X138" s="8"/>
+      <c r="Y138" s="8"/>
+      <c r="Z138" s="8"/>
+      <c r="AA138" s="8"/>
+      <c r="AB138" s="8"/>
+    </row>
+    <row r="139" spans="1:28">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
       <c r="D139" s="9"/>
       <c r="E139" s="8"/>
-      <c r="F139" s="14" t="s">
-        <v>246</v>
-      </c>
+      <c r="F139" s="14"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -7023,88 +7038,113 @@
       <c r="AB139" s="8"/>
     </row>
     <row r="140" spans="1:28">
-      <c r="A140" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="16" t="s">
-        <v>248</v>
-      </c>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="8"/>
+      <c r="R140" s="8"/>
+      <c r="S140" s="8"/>
+      <c r="T140" s="8"/>
+      <c r="U140" s="8"/>
+      <c r="V140" s="8"/>
+      <c r="W140" s="8"/>
+      <c r="X140" s="8"/>
+      <c r="Y140" s="8"/>
+      <c r="Z140" s="8"/>
+      <c r="AA140" s="8"/>
+      <c r="AB140" s="8"/>
     </row>
     <row r="141" spans="1:28">
-      <c r="A141" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="7"/>
-      <c r="F141" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="142" spans="1:28" ht="25.5">
-      <c r="A142" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D142" s="9"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="8"/>
-      <c r="S142" s="8"/>
-      <c r="T142" s="8"/>
-      <c r="U142" s="8"/>
-      <c r="V142" s="8"/>
-      <c r="W142" s="8"/>
-      <c r="X142" s="8"/>
-      <c r="Y142" s="8"/>
-      <c r="Z142" s="8"/>
-      <c r="AA142" s="8"/>
-      <c r="AB142" s="8"/>
-    </row>
-    <row r="143" spans="1:28">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="8"/>
+      <c r="R141" s="8"/>
+      <c r="S141" s="8"/>
+      <c r="T141" s="8"/>
+      <c r="U141" s="8"/>
+      <c r="V141" s="8"/>
+      <c r="W141" s="8"/>
+      <c r="X141" s="8"/>
+      <c r="Y141" s="8"/>
+      <c r="Z141" s="8"/>
+      <c r="AA141" s="8"/>
+      <c r="AB141" s="8"/>
+    </row>
+    <row r="142" spans="1:28">
+      <c r="A142" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2"/>
+      <c r="V142" s="2"/>
+      <c r="W142" s="2"/>
+      <c r="X142" s="2"/>
+      <c r="Y142" s="2"/>
+      <c r="Z142" s="2"/>
+      <c r="AA142" s="2"/>
+      <c r="AB142" s="2"/>
+    </row>
+    <row r="143" spans="1:28" ht="25.5">
       <c r="A143" s="8" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="8"/>
       <c r="F143" s="14" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -7130,95 +7170,50 @@
       <c r="AB143" s="8"/>
     </row>
     <row r="144" spans="1:28">
-      <c r="A144" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D144" s="9"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
-      <c r="K144" s="8"/>
-      <c r="L144" s="8"/>
-      <c r="M144" s="8"/>
-      <c r="N144" s="8"/>
-      <c r="O144" s="8"/>
-      <c r="P144" s="8"/>
-      <c r="Q144" s="8"/>
-      <c r="R144" s="8"/>
-      <c r="S144" s="8"/>
-      <c r="T144" s="8"/>
-      <c r="U144" s="8"/>
-      <c r="V144" s="8"/>
-      <c r="W144" s="8"/>
-      <c r="X144" s="8"/>
-      <c r="Y144" s="8"/>
-      <c r="Z144" s="8"/>
-      <c r="AA144" s="8"/>
-      <c r="AB144" s="8"/>
+      <c r="A144" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="16" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="145" spans="1:28">
-      <c r="A145" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="8"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="8"/>
-      <c r="N145" s="8"/>
-      <c r="O145" s="8"/>
-      <c r="P145" s="8"/>
-      <c r="Q145" s="8"/>
-      <c r="R145" s="8"/>
-      <c r="S145" s="8"/>
-      <c r="T145" s="8"/>
-      <c r="U145" s="8"/>
-      <c r="V145" s="8"/>
-      <c r="W145" s="8"/>
-      <c r="X145" s="8"/>
-      <c r="Y145" s="8"/>
-      <c r="Z145" s="8"/>
-      <c r="AA145" s="8"/>
-      <c r="AB145" s="8"/>
-    </row>
-    <row r="146" spans="1:28">
+      <c r="A145" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="7"/>
+      <c r="F145" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" ht="25.5">
       <c r="A146" s="8" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="8"/>
       <c r="F146" s="14" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
@@ -7245,10 +7240,10 @@
     </row>
     <row r="147" spans="1:28">
       <c r="A147" s="8" t="s">
-        <v>261</v>
+        <v>333</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>26</v>
@@ -7256,7 +7251,7 @@
       <c r="D147" s="9"/>
       <c r="E147" s="8"/>
       <c r="F147" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
@@ -7282,18 +7277,20 @@
       <c r="AB147" s="8"/>
     </row>
     <row r="148" spans="1:28">
-      <c r="A148" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C148" s="8" t="s">
+      <c r="A148" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="8"/>
-      <c r="F148" s="14"/>
+      <c r="F148" s="19" t="s">
+        <v>336</v>
+      </c>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
@@ -7317,12 +7314,12 @@
       <c r="AA148" s="8"/>
       <c r="AB148" s="8"/>
     </row>
-    <row r="149" spans="1:28" ht="25.5">
-      <c r="A149" s="8" t="s">
-        <v>266</v>
+    <row r="149" spans="1:28">
+      <c r="A149" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>26</v>
@@ -7330,7 +7327,7 @@
       <c r="D149" s="9"/>
       <c r="E149" s="8"/>
       <c r="F149" s="14" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -7357,10 +7354,10 @@
     </row>
     <row r="150" spans="1:28">
       <c r="A150" s="8" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>26</v>
@@ -7368,7 +7365,7 @@
       <c r="D150" s="9"/>
       <c r="E150" s="8"/>
       <c r="F150" s="14" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
@@ -7393,20 +7390,20 @@
       <c r="AA150" s="8"/>
       <c r="AB150" s="8"/>
     </row>
-    <row r="151" spans="1:28" ht="25.5">
+    <row r="151" spans="1:28">
       <c r="A151" s="8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="8"/>
       <c r="F151" s="14" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -7432,9 +7429,15 @@
       <c r="AB151" s="8"/>
     </row>
     <row r="152" spans="1:28">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
+      <c r="A152" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D152" s="9"/>
       <c r="E152" s="8"/>
       <c r="F152" s="14"/>
@@ -7461,13 +7464,21 @@
       <c r="AA152" s="8"/>
       <c r="AB152" s="8"/>
     </row>
-    <row r="153" spans="1:28">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
+    <row r="153" spans="1:28" ht="25.5">
+      <c r="A153" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D153" s="9"/>
       <c r="E153" s="8"/>
-      <c r="F153" s="14"/>
+      <c r="F153" s="14" t="s">
+        <v>267</v>
+      </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
       <c r="I153" s="8"/>
@@ -7492,12 +7503,20 @@
       <c r="AB153" s="8"/>
     </row>
     <row r="154" spans="1:28">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
+      <c r="A154" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D154" s="9"/>
       <c r="E154" s="8"/>
-      <c r="F154" s="14"/>
+      <c r="F154" s="14" t="s">
+        <v>270</v>
+      </c>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
@@ -7521,55 +7540,51 @@
       <c r="AA154" s="8"/>
       <c r="AB154" s="8"/>
     </row>
-    <row r="155" spans="1:28">
-      <c r="A155" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-      <c r="Q155" s="2"/>
-      <c r="R155" s="2"/>
-      <c r="S155" s="2"/>
-      <c r="T155" s="2"/>
-      <c r="U155" s="2"/>
-      <c r="V155" s="2"/>
-      <c r="W155" s="2"/>
-      <c r="X155" s="2"/>
-      <c r="Y155" s="2"/>
-      <c r="Z155" s="2"/>
-      <c r="AA155" s="2"/>
-      <c r="AB155" s="2"/>
-    </row>
-    <row r="156" spans="1:28" ht="63.75">
-      <c r="A156" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D156" s="8"/>
+    <row r="155" spans="1:28" ht="25.5">
+      <c r="A155" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D155" s="9"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8"/>
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
+      <c r="Q155" s="8"/>
+      <c r="R155" s="8"/>
+      <c r="S155" s="8"/>
+      <c r="T155" s="8"/>
+      <c r="U155" s="8"/>
+      <c r="V155" s="8"/>
+      <c r="W155" s="8"/>
+      <c r="X155" s="8"/>
+      <c r="Y155" s="8"/>
+      <c r="Z155" s="8"/>
+      <c r="AA155" s="8"/>
+      <c r="AB155" s="8"/>
+    </row>
+    <row r="156" spans="1:28">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="9"/>
       <c r="E156" s="8"/>
-      <c r="F156" s="14" t="s">
-        <v>278</v>
-      </c>
+      <c r="F156" s="14"/>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
@@ -7593,21 +7608,13 @@
       <c r="AA156" s="8"/>
       <c r="AB156" s="8"/>
     </row>
-    <row r="157" spans="1:28" ht="51">
-      <c r="A157" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D157" s="8"/>
+    <row r="157" spans="1:28">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="9"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="14" t="s">
-        <v>281</v>
-      </c>
+      <c r="F157" s="14"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
@@ -7631,21 +7638,13 @@
       <c r="AA157" s="8"/>
       <c r="AB157" s="8"/>
     </row>
-    <row r="158" spans="1:28" ht="38.25">
-      <c r="A158" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D158" s="8"/>
+    <row r="158" spans="1:28">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="9"/>
       <c r="E158" s="8"/>
-      <c r="F158" s="14" t="s">
-        <v>284</v>
-      </c>
+      <c r="F158" s="14"/>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
@@ -7669,51 +7668,55 @@
       <c r="AA158" s="8"/>
       <c r="AB158" s="8"/>
     </row>
-    <row r="159" spans="1:28" ht="38.25">
-      <c r="A159" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
-      <c r="K159" s="8"/>
-      <c r="L159" s="8"/>
-      <c r="M159" s="8"/>
-      <c r="N159" s="8"/>
-      <c r="O159" s="8"/>
-      <c r="P159" s="8"/>
-      <c r="Q159" s="8"/>
-      <c r="R159" s="8"/>
-      <c r="S159" s="8"/>
-      <c r="T159" s="8"/>
-      <c r="U159" s="8"/>
-      <c r="V159" s="8"/>
-      <c r="W159" s="8"/>
-      <c r="X159" s="8"/>
-      <c r="Y159" s="8"/>
-      <c r="Z159" s="8"/>
-      <c r="AA159" s="8"/>
-      <c r="AB159" s="8"/>
-    </row>
-    <row r="160" spans="1:28">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
+    <row r="159" spans="1:28">
+      <c r="A159" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2"/>
+      <c r="V159" s="2"/>
+      <c r="W159" s="2"/>
+      <c r="X159" s="2"/>
+      <c r="Y159" s="2"/>
+      <c r="Z159" s="2"/>
+      <c r="AA159" s="2"/>
+      <c r="AB159" s="2"/>
+    </row>
+    <row r="160" spans="1:28" ht="63.75">
+      <c r="A160" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
-      <c r="F160" s="14"/>
+      <c r="F160" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
@@ -7737,13 +7740,21 @@
       <c r="AA160" s="8"/>
       <c r="AB160" s="8"/>
     </row>
-    <row r="161" spans="1:28">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
+    <row r="161" spans="1:28" ht="51">
+      <c r="A161" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
-      <c r="F161" s="14"/>
+      <c r="F161" s="14" t="s">
+        <v>280</v>
+      </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
@@ -7767,13 +7778,21 @@
       <c r="AA161" s="8"/>
       <c r="AB161" s="8"/>
     </row>
-    <row r="162" spans="1:28">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
+    <row r="162" spans="1:28" ht="38.25">
+      <c r="A162" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
-      <c r="F162" s="14"/>
+      <c r="F162" s="14" t="s">
+        <v>283</v>
+      </c>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
@@ -7797,13 +7816,21 @@
       <c r="AA162" s="8"/>
       <c r="AB162" s="8"/>
     </row>
-    <row r="163" spans="1:28">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
+    <row r="163" spans="1:28" ht="38.25">
+      <c r="A163" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
-      <c r="F163" s="14"/>
+      <c r="F163" s="14" t="s">
+        <v>286</v>
+      </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
@@ -7858,16 +7885,124 @@
       <c r="AB164" s="8"/>
     </row>
     <row r="165" spans="1:28">
-      <c r="F165" s="23"/>
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
+      <c r="M165" s="8"/>
+      <c r="N165" s="8"/>
+      <c r="O165" s="8"/>
+      <c r="P165" s="8"/>
+      <c r="Q165" s="8"/>
+      <c r="R165" s="8"/>
+      <c r="S165" s="8"/>
+      <c r="T165" s="8"/>
+      <c r="U165" s="8"/>
+      <c r="V165" s="8"/>
+      <c r="W165" s="8"/>
+      <c r="X165" s="8"/>
+      <c r="Y165" s="8"/>
+      <c r="Z165" s="8"/>
+      <c r="AA165" s="8"/>
+      <c r="AB165" s="8"/>
     </row>
     <row r="166" spans="1:28">
-      <c r="F166" s="23"/>
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
+      <c r="M166" s="8"/>
+      <c r="N166" s="8"/>
+      <c r="O166" s="8"/>
+      <c r="P166" s="8"/>
+      <c r="Q166" s="8"/>
+      <c r="R166" s="8"/>
+      <c r="S166" s="8"/>
+      <c r="T166" s="8"/>
+      <c r="U166" s="8"/>
+      <c r="V166" s="8"/>
+      <c r="W166" s="8"/>
+      <c r="X166" s="8"/>
+      <c r="Y166" s="8"/>
+      <c r="Z166" s="8"/>
+      <c r="AA166" s="8"/>
+      <c r="AB166" s="8"/>
     </row>
     <row r="167" spans="1:28">
-      <c r="F167" s="23"/>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="8"/>
+      <c r="N167" s="8"/>
+      <c r="O167" s="8"/>
+      <c r="P167" s="8"/>
+      <c r="Q167" s="8"/>
+      <c r="R167" s="8"/>
+      <c r="S167" s="8"/>
+      <c r="T167" s="8"/>
+      <c r="U167" s="8"/>
+      <c r="V167" s="8"/>
+      <c r="W167" s="8"/>
+      <c r="X167" s="8"/>
+      <c r="Y167" s="8"/>
+      <c r="Z167" s="8"/>
+      <c r="AA167" s="8"/>
+      <c r="AB167" s="8"/>
     </row>
     <row r="168" spans="1:28">
-      <c r="F168" s="23"/>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="8"/>
+      <c r="N168" s="8"/>
+      <c r="O168" s="8"/>
+      <c r="P168" s="8"/>
+      <c r="Q168" s="8"/>
+      <c r="R168" s="8"/>
+      <c r="S168" s="8"/>
+      <c r="T168" s="8"/>
+      <c r="U168" s="8"/>
+      <c r="V168" s="8"/>
+      <c r="W168" s="8"/>
+      <c r="X168" s="8"/>
+      <c r="Y168" s="8"/>
+      <c r="Z168" s="8"/>
+      <c r="AA168" s="8"/>
+      <c r="AB168" s="8"/>
     </row>
     <row r="169" spans="1:28">
       <c r="F169" s="23"/>
@@ -7974,9 +8109,21 @@
     <row r="203" spans="6:6">
       <c r="F203" s="23"/>
     </row>
+    <row r="204" spans="6:6">
+      <c r="F204" s="23"/>
+    </row>
+    <row r="205" spans="6:6">
+      <c r="F205" s="23"/>
+    </row>
+    <row r="206" spans="6:6">
+      <c r="F206" s="23"/>
+    </row>
+    <row r="207" spans="6:6">
+      <c r="F207" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F49:I57"/>
+    <mergeCell ref="F49:I58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/FTLSupporter adatszerkezetek.xlsx
+++ b/doc/FTLSupporter adatszerkezetek.xlsx
@@ -541,9 +541,6 @@
     <t>T1Cost</t>
   </si>
   <si>
-    <t>T1Duration</t>
-  </si>
-  <si>
     <t>I. túra kezdete</t>
   </si>
   <si>
@@ -589,12 +586,6 @@
     <t>RelCost</t>
   </si>
   <si>
-    <t>Átállás időtartam</t>
-  </si>
-  <si>
-    <t>RelDuration</t>
-  </si>
-  <si>
     <t>Átállás kezdete</t>
   </si>
   <si>
@@ -637,12 +628,6 @@
     <t>T2Cost</t>
   </si>
   <si>
-    <t>II. túra időtartam</t>
-  </si>
-  <si>
-    <t>T2Duration</t>
-  </si>
-  <si>
     <t>II. túra kezdete</t>
   </si>
   <si>
@@ -686,9 +671,6 @@
   </si>
   <si>
     <t>Visszatérés időtartam</t>
-  </si>
-  <si>
-    <t>RetDuration</t>
   </si>
   <si>
     <t>Visszatérés  kezdete</t>
@@ -1841,6 +1823,24 @@
       </rPr>
       <t>(másodpercben)</t>
     </r>
+  </si>
+  <si>
+    <t>RelFullDuration</t>
+  </si>
+  <si>
+    <t>Átállás teljes időtartam</t>
+  </si>
+  <si>
+    <t>T1FullDuration</t>
+  </si>
+  <si>
+    <t>T2FullDuration</t>
+  </si>
+  <si>
+    <t>II. túra teljes időtartam</t>
+  </si>
+  <si>
+    <t>RetFullDuration</t>
   </si>
 </sst>
 </file>
@@ -2377,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49:I58"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2713,10 +2713,10 @@
     </row>
     <row r="10" spans="1:28" ht="76.5">
       <c r="A10" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>26</v>
@@ -2728,7 +2728,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2848,10 +2848,10 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>106</v>
@@ -2860,7 +2860,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -3188,10 +3188,10 @@
     </row>
     <row r="27" spans="1:28" ht="51">
       <c r="A27" s="28" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>11</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="19" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="28" spans="1:28" ht="25.5">
       <c r="A28" s="28" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>11</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="19" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>72</v>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="19" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="22" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>26</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="45" spans="1:28" ht="242.25">
       <c r="A45" s="8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>134</v>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="19" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -3854,10 +3854,10 @@
     </row>
     <row r="46" spans="1:28" ht="25.5">
       <c r="A46" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>134</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="30" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3956,10 +3956,10 @@
     </row>
     <row r="49" spans="1:28" ht="51.75" customHeight="1">
       <c r="A49" s="29" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="31" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G49" s="31"/>
       <c r="H49" s="31"/>
@@ -3996,10 +3996,10 @@
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="29" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="29" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
@@ -4072,10 +4072,10 @@
     </row>
     <row r="52" spans="1:28" ht="17.25" customHeight="1">
       <c r="A52" s="29" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
@@ -4110,10 +4110,10 @@
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1">
       <c r="A53" s="29" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="29" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="29" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
@@ -4224,10 +4224,10 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="29" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C56" t="s">
         <v>26</v>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="29" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C57" t="s">
         <v>26</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="58" spans="1:28" ht="38.25">
       <c r="A58" s="28" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="19" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="19" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="8" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>26</v>
@@ -5580,7 +5580,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="14" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -5607,10 +5607,10 @@
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="8" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>26</v>
@@ -5618,7 +5618,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="14" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -5645,10 +5645,10 @@
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>20</v>
@@ -5656,7 +5656,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -5683,10 +5683,10 @@
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>20</v>
@@ -5719,13 +5719,13 @@
     </row>
     <row r="103" spans="1:28" ht="25.5">
       <c r="A103" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="C103" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="104" spans="1:28">
       <c r="A104" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>26</v>
@@ -5823,10 +5823,10 @@
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>26</v>
@@ -5859,10 +5859,10 @@
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>26</v>
@@ -5895,10 +5895,10 @@
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="8" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>26</v>
@@ -5906,7 +5906,7 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="14" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
@@ -5933,10 +5933,10 @@
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="8" t="s">
-        <v>187</v>
+        <v>348</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>188</v>
+        <v>347</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>26</v>
@@ -5944,7 +5944,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="16" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -5971,10 +5971,10 @@
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>20</v>
@@ -6007,10 +6007,10 @@
     </row>
     <row r="111" spans="1:28">
       <c r="A111" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>20</v>
@@ -6043,13 +6043,13 @@
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="113" spans="1:28">
       <c r="A113" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -6111,10 +6111,10 @@
     </row>
     <row r="114" spans="1:28">
       <c r="A114" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>26</v>
@@ -6147,10 +6147,10 @@
     </row>
     <row r="115" spans="1:28">
       <c r="A115" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>26</v>
@@ -6183,10 +6183,10 @@
     </row>
     <row r="116" spans="1:28">
       <c r="A116" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>26</v>
@@ -6219,10 +6219,10 @@
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>26</v>
@@ -6230,7 +6230,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="14" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -6257,10 +6257,10 @@
     </row>
     <row r="118" spans="1:28">
       <c r="A118" s="8" t="s">
-        <v>203</v>
+        <v>351</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>204</v>
+        <v>350</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>26</v>
@@ -6268,7 +6268,7 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="26" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
@@ -6295,10 +6295,10 @@
     </row>
     <row r="119" spans="1:28">
       <c r="A119" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>20</v>
@@ -6331,10 +6331,10 @@
     </row>
     <row r="120" spans="1:28">
       <c r="A120" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>20</v>
@@ -6367,13 +6367,13 @@
     </row>
     <row r="121" spans="1:28" ht="25.5">
       <c r="A121" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="122" spans="1:28">
       <c r="A122" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -6435,10 +6435,10 @@
     </row>
     <row r="123" spans="1:28">
       <c r="A123" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>26</v>
@@ -6446,7 +6446,7 @@
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -6473,10 +6473,10 @@
     </row>
     <row r="124" spans="1:28">
       <c r="A124" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>26</v>
@@ -6509,10 +6509,10 @@
     </row>
     <row r="125" spans="1:28">
       <c r="A125" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>26</v>
@@ -6545,10 +6545,10 @@
     </row>
     <row r="126" spans="1:28">
       <c r="A126" s="8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>26</v>
@@ -6556,7 +6556,7 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="14" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
@@ -6583,10 +6583,10 @@
     </row>
     <row r="127" spans="1:28">
       <c r="A127" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>220</v>
+        <v>352</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>26</v>
@@ -6594,7 +6594,7 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="14" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -6621,10 +6621,10 @@
     </row>
     <row r="128" spans="1:28">
       <c r="A128" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>20</v>
@@ -6657,10 +6657,10 @@
     </row>
     <row r="129" spans="1:28">
       <c r="A129" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>20</v>
@@ -6693,13 +6693,13 @@
     </row>
     <row r="130" spans="1:28">
       <c r="A130" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -6759,14 +6759,14 @@
     </row>
     <row r="132" spans="1:28" ht="25.5">
       <c r="A132" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
@@ -6793,10 +6793,10 @@
     </row>
     <row r="133" spans="1:28">
       <c r="A133" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="8"/>
@@ -6827,10 +6827,10 @@
     </row>
     <row r="134" spans="1:28">
       <c r="A134" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>26</v>
@@ -6838,7 +6838,7 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="135" spans="1:28">
       <c r="A135" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>26</v>
@@ -6876,7 +6876,7 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
@@ -6903,10 +6903,10 @@
     </row>
     <row r="136" spans="1:28">
       <c r="A136" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>26</v>
@@ -6914,7 +6914,7 @@
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="14" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
@@ -6941,10 +6941,10 @@
     </row>
     <row r="137" spans="1:28">
       <c r="A137" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>26</v>
@@ -6952,7 +6952,7 @@
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="16" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
@@ -7099,10 +7099,10 @@
     </row>
     <row r="142" spans="1:28">
       <c r="A142" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -7136,7 +7136,7 @@
         <v>6</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>7</v>
@@ -7144,7 +7144,7 @@
       <c r="D143" s="9"/>
       <c r="E143" s="8"/>
       <c r="F143" s="14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -7174,7 +7174,7 @@
         <v>34</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>20</v>
@@ -7182,7 +7182,7 @@
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>
       <c r="F144" s="16" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -7190,22 +7190,22 @@
         <v>38</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D145" s="7"/>
       <c r="F145" s="16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="146" spans="1:28" ht="25.5">
       <c r="A146" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>106</v>
@@ -7213,7 +7213,7 @@
       <c r="D146" s="9"/>
       <c r="E146" s="8"/>
       <c r="F146" s="14" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
@@ -7240,10 +7240,10 @@
     </row>
     <row r="147" spans="1:28">
       <c r="A147" s="8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>26</v>
@@ -7251,7 +7251,7 @@
       <c r="D147" s="9"/>
       <c r="E147" s="8"/>
       <c r="F147" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
@@ -7278,10 +7278,10 @@
     </row>
     <row r="148" spans="1:28">
       <c r="A148" s="11" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>26</v>
@@ -7289,7 +7289,7 @@
       <c r="D148" s="9"/>
       <c r="E148" s="8"/>
       <c r="F148" s="19" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
@@ -7316,10 +7316,10 @@
     </row>
     <row r="149" spans="1:28">
       <c r="A149" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>26</v>
@@ -7327,7 +7327,7 @@
       <c r="D149" s="9"/>
       <c r="E149" s="8"/>
       <c r="F149" s="14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="150" spans="1:28">
       <c r="A150" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>25</v>
@@ -7365,7 +7365,7 @@
       <c r="D150" s="9"/>
       <c r="E150" s="8"/>
       <c r="F150" s="14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
@@ -7392,10 +7392,10 @@
     </row>
     <row r="151" spans="1:28">
       <c r="A151" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>26</v>
@@ -7403,7 +7403,7 @@
       <c r="D151" s="9"/>
       <c r="E151" s="8"/>
       <c r="F151" s="14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -7430,10 +7430,10 @@
     </row>
     <row r="152" spans="1:28">
       <c r="A152" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>26</v>
@@ -7466,10 +7466,10 @@
     </row>
     <row r="153" spans="1:28" ht="25.5">
       <c r="A153" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>26</v>
@@ -7477,7 +7477,7 @@
       <c r="D153" s="9"/>
       <c r="E153" s="8"/>
       <c r="F153" s="14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
@@ -7504,10 +7504,10 @@
     </row>
     <row r="154" spans="1:28">
       <c r="A154" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>26</v>
@@ -7515,7 +7515,7 @@
       <c r="D154" s="9"/>
       <c r="E154" s="8"/>
       <c r="F154" s="14" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
@@ -7542,10 +7542,10 @@
     </row>
     <row r="155" spans="1:28" ht="25.5">
       <c r="A155" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>134</v>
@@ -7553,7 +7553,7 @@
       <c r="D155" s="9"/>
       <c r="E155" s="8"/>
       <c r="F155" s="14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -7670,10 +7670,10 @@
     </row>
     <row r="159" spans="1:28">
       <c r="A159" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -7710,12 +7710,12 @@
         <v>151</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="F160" s="14" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
@@ -7742,10 +7742,10 @@
     </row>
     <row r="161" spans="1:28" ht="51">
       <c r="A161" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>134</v>
@@ -7753,7 +7753,7 @@
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -7780,10 +7780,10 @@
     </row>
     <row r="162" spans="1:28" ht="38.25">
       <c r="A162" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>134</v>
@@ -7791,7 +7791,7 @@
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
       <c r="F162" s="14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
@@ -7818,18 +7818,18 @@
     </row>
     <row r="163" spans="1:28" ht="38.25">
       <c r="A163" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>

--- a/doc/FTLSupporter adatszerkezetek.xlsx
+++ b/doc/FTLSupporter adatszerkezetek.xlsx
@@ -783,12 +783,6 @@
   <si>
     <t>A túrapont teljesítve van-e?
 Teljesített túrapont esetén az időadatok értékei a megkapott követési adatok, ellenben a program számolja ki.</t>
-  </si>
-  <si>
-    <t>RouteDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utazási idő </t>
   </si>
   <si>
     <t>Várakozási idő</t>
@@ -1841,6 +1835,12 @@
   </si>
   <si>
     <t>RetFullDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vezetéssel eltöltött idő </t>
+  </si>
+  <si>
+    <t>DrivingDuration</t>
   </si>
 </sst>
 </file>
@@ -2377,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2713,10 +2713,10 @@
     </row>
     <row r="10" spans="1:28" ht="76.5">
       <c r="A10" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>26</v>
@@ -2728,7 +2728,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2848,10 +2848,10 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>106</v>
@@ -2860,7 +2860,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -3188,10 +3188,10 @@
     </row>
     <row r="27" spans="1:28" ht="51">
       <c r="A27" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>11</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="28" spans="1:28" ht="25.5">
       <c r="A28" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>11</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>72</v>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>26</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="45" spans="1:28" ht="242.25">
       <c r="A45" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>134</v>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -3854,10 +3854,10 @@
     </row>
     <row r="46" spans="1:28" ht="25.5">
       <c r="A46" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>134</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3956,10 +3956,10 @@
     </row>
     <row r="49" spans="1:28" ht="51.75" customHeight="1">
       <c r="A49" s="29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G49" s="31"/>
       <c r="H49" s="31"/>
@@ -3996,10 +3996,10 @@
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
@@ -4072,10 +4072,10 @@
     </row>
     <row r="52" spans="1:28" ht="17.25" customHeight="1">
       <c r="A52" s="29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
@@ -4110,10 +4110,10 @@
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1">
       <c r="A53" s="29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="29" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
@@ -4224,10 +4224,10 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B56" s="29" t="s">
         <v>320</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>322</v>
       </c>
       <c r="C56" t="s">
         <v>26</v>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>321</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>323</v>
       </c>
       <c r="C57" t="s">
         <v>26</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="58" spans="1:28" ht="38.25">
       <c r="A58" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B58" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>26</v>
@@ -5580,7 +5580,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -5607,10 +5607,10 @@
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>26</v>
@@ -5618,7 +5618,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -5895,10 +5895,10 @@
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>340</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>26</v>
@@ -5906,7 +5906,7 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
@@ -5933,10 +5933,10 @@
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>26</v>
@@ -5944,7 +5944,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -6219,10 +6219,10 @@
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>26</v>
@@ -6230,7 +6230,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -6257,10 +6257,10 @@
     </row>
     <row r="118" spans="1:28">
       <c r="A118" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>26</v>
@@ -6268,7 +6268,7 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
@@ -6545,10 +6545,10 @@
     </row>
     <row r="126" spans="1:28">
       <c r="A126" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>26</v>
@@ -6556,7 +6556,7 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
@@ -6586,7 +6586,7 @@
         <v>214</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>26</v>
@@ -6594,7 +6594,7 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -7240,10 +7240,10 @@
     </row>
     <row r="147" spans="1:28">
       <c r="A147" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>26</v>
@@ -7251,7 +7251,7 @@
       <c r="D147" s="9"/>
       <c r="E147" s="8"/>
       <c r="F147" s="14" t="s">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
@@ -7278,10 +7278,10 @@
     </row>
     <row r="148" spans="1:28">
       <c r="A148" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>26</v>
@@ -7289,7 +7289,7 @@
       <c r="D148" s="9"/>
       <c r="E148" s="8"/>
       <c r="F148" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
@@ -7316,10 +7316,10 @@
     </row>
     <row r="149" spans="1:28">
       <c r="A149" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>26</v>
@@ -7327,7 +7327,7 @@
       <c r="D149" s="9"/>
       <c r="E149" s="8"/>
       <c r="F149" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="150" spans="1:28">
       <c r="A150" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>25</v>
@@ -7365,7 +7365,7 @@
       <c r="D150" s="9"/>
       <c r="E150" s="8"/>
       <c r="F150" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
@@ -7392,10 +7392,10 @@
     </row>
     <row r="151" spans="1:28">
       <c r="A151" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>26</v>
@@ -7403,7 +7403,7 @@
       <c r="D151" s="9"/>
       <c r="E151" s="8"/>
       <c r="F151" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -7430,10 +7430,10 @@
     </row>
     <row r="152" spans="1:28">
       <c r="A152" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>26</v>
@@ -7466,10 +7466,10 @@
     </row>
     <row r="153" spans="1:28" ht="25.5">
       <c r="A153" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>26</v>
@@ -7477,7 +7477,7 @@
       <c r="D153" s="9"/>
       <c r="E153" s="8"/>
       <c r="F153" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
@@ -7504,10 +7504,10 @@
     </row>
     <row r="154" spans="1:28">
       <c r="A154" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>26</v>
@@ -7515,7 +7515,7 @@
       <c r="D154" s="9"/>
       <c r="E154" s="8"/>
       <c r="F154" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
@@ -7542,10 +7542,10 @@
     </row>
     <row r="155" spans="1:28" ht="25.5">
       <c r="A155" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>134</v>
@@ -7553,7 +7553,7 @@
       <c r="D155" s="9"/>
       <c r="E155" s="8"/>
       <c r="F155" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -7670,10 +7670,10 @@
     </row>
     <row r="159" spans="1:28">
       <c r="A159" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -7710,12 +7710,12 @@
         <v>151</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="F160" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
@@ -7742,10 +7742,10 @@
     </row>
     <row r="161" spans="1:28" ht="51">
       <c r="A161" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>134</v>
@@ -7753,7 +7753,7 @@
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -7780,10 +7780,10 @@
     </row>
     <row r="162" spans="1:28" ht="38.25">
       <c r="A162" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>134</v>
@@ -7791,7 +7791,7 @@
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
       <c r="F162" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
@@ -7818,18 +7818,18 @@
     </row>
     <row r="163" spans="1:28" ht="38.25">
       <c r="A163" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>

--- a/doc/FTLSupporter adatszerkezetek.xlsx
+++ b/doc/FTLSupporter adatszerkezetek.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="358">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -1842,6 +1842,21 @@
   <si>
     <t>DrivingDuration</t>
   </si>
+  <si>
+    <t>Szélesség</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Magasság</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>cm-ben, 0=nincs megadva</t>
+  </si>
 </sst>
 </file>
 
@@ -2002,7 +2017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2090,6 +2105,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2375,10 +2393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB207"/>
+  <dimension ref="A1:AB209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -3852,22 +3870,22 @@
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
     </row>
-    <row r="46" spans="1:28" ht="25.5">
-      <c r="A46" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>297</v>
+    <row r="46" spans="1:28">
+      <c r="A46" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="19" t="s">
-        <v>300</v>
+      <c r="F46" s="31" t="s">
+        <v>357</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -3893,12 +3911,22 @@
       <c r="AB46" s="8"/>
     </row>
     <row r="47" spans="1:28">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="A47" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="19"/>
+      <c r="F47" s="31" t="s">
+        <v>357</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -3922,58 +3950,56 @@
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
     </row>
-    <row r="48" spans="1:28">
-      <c r="A48" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-    </row>
-    <row r="49" spans="1:28" ht="51.75" customHeight="1">
-      <c r="A49" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
+    <row r="48" spans="1:28" ht="25.5">
+      <c r="A48" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -3995,61 +4021,57 @@
       <c r="AB49" s="8"/>
     </row>
     <row r="50" spans="1:28">
-      <c r="A50" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="A50" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+    </row>
+    <row r="51" spans="1:28" ht="51.75" customHeight="1">
       <c r="A51" s="29" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
+      <c r="F51" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
@@ -4070,24 +4092,24 @@
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
     </row>
-    <row r="52" spans="1:28" ht="17.25" customHeight="1">
+    <row r="52" spans="1:28">
       <c r="A52" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="B52" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>307</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="29" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -4108,12 +4130,12 @@
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
     </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1">
+    <row r="53" spans="1:28">
       <c r="A53" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
@@ -4122,10 +4144,10 @@
         <v>15</v>
       </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
@@ -4146,12 +4168,12 @@
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" ht="17.25" customHeight="1">
       <c r="A54" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="B54" t="s">
+        <v>308</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
@@ -4160,10 +4182,10 @@
         <v>15</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -4184,12 +4206,12 @@
       <c r="AA54" s="8"/>
       <c r="AB54" s="8"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" ht="15.75" customHeight="1">
       <c r="A55" s="29" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
@@ -4198,10 +4220,10 @@
         <v>15</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
@@ -4224,10 +4246,10 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="29" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C56" t="s">
         <v>26</v>
@@ -4236,10 +4258,10 @@
         <v>15</v>
       </c>
       <c r="E56" s="8"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
@@ -4262,10 +4284,10 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="29" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C57" t="s">
         <v>26</v>
@@ -4274,10 +4296,10 @@
         <v>15</v>
       </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -4298,12 +4320,12 @@
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
     </row>
-    <row r="58" spans="1:28" ht="38.25">
-      <c r="A58" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="B58" t="s">
-        <v>313</v>
+    <row r="58" spans="1:28">
+      <c r="A58" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>320</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
@@ -4312,10 +4334,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="8"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -4337,15 +4359,23 @@
       <c r="AB58" s="8"/>
     </row>
     <row r="59" spans="1:28">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="11"/>
+      <c r="A59" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
       <c r="E59" s="8"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -4366,58 +4396,54 @@
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
     </row>
-    <row r="60" spans="1:28">
-      <c r="A60" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-    </row>
-    <row r="61" spans="1:28" ht="178.5">
-      <c r="A61" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>12</v>
-      </c>
+    <row r="60" spans="1:28" ht="38.25">
+      <c r="A60" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
@@ -4439,61 +4465,53 @@
       <c r="AB61" s="8"/>
     </row>
     <row r="62" spans="1:28">
-      <c r="A62" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="8"/>
-      <c r="AB62" s="8"/>
-    </row>
-    <row r="63" spans="1:28">
-      <c r="A63" s="9" t="s">
-        <v>104</v>
+      <c r="A62" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+    </row>
+    <row r="63" spans="1:28" ht="178.5">
+      <c r="A63" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E63" s="8"/>
-      <c r="F63" s="14" t="s">
-        <v>107</v>
+      <c r="F63" s="19" t="s">
+        <v>279</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -4518,22 +4536,22 @@
       <c r="AA63" s="8"/>
       <c r="AB63" s="8"/>
     </row>
-    <row r="64" spans="1:28" ht="25.5">
+    <row r="64" spans="1:28">
       <c r="A64" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>110</v>
+        <v>11</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="E64" s="8"/>
-      <c r="F64" s="19" t="s">
-        <v>280</v>
+      <c r="F64" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -4558,22 +4576,22 @@
       <c r="AA64" s="8"/>
       <c r="AB64" s="8"/>
     </row>
-    <row r="65" spans="1:28" ht="25.5">
-      <c r="A65" s="8" t="s">
-        <v>111</v>
+    <row r="65" spans="1:28">
+      <c r="A65" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="E65" s="8"/>
-      <c r="F65" s="20" t="s">
-        <v>113</v>
+      <c r="F65" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -4600,20 +4618,20 @@
     </row>
     <row r="66" spans="1:28" ht="25.5">
       <c r="A66" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="20" t="s">
-        <v>116</v>
+      <c r="F66" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -4638,22 +4656,22 @@
       <c r="AA66" s="8"/>
       <c r="AB66" s="8"/>
     </row>
-    <row r="67" spans="1:28" ht="38.25">
+    <row r="67" spans="1:28" ht="25.5">
       <c r="A67" s="8" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>12</v>
+        <v>112</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="14" t="s">
-        <v>118</v>
+      <c r="F67" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -4678,208 +4696,216 @@
       <c r="AA67" s="8"/>
       <c r="AB67" s="8"/>
     </row>
-    <row r="68" spans="1:28">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:28" ht="25.5">
+      <c r="A68" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+    </row>
+    <row r="69" spans="1:28" ht="38.25">
+      <c r="A69" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F70" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
-      <c r="F69" s="23"/>
-    </row>
-    <row r="70" spans="1:28">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="8"/>
-      <c r="Y70" s="8"/>
-      <c r="Z70" s="8"/>
-      <c r="AA70" s="8"/>
-      <c r="AB70" s="8"/>
-    </row>
     <row r="71" spans="1:28">
-      <c r="A71" s="3" t="s">
+      <c r="F71" s="23"/>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-    </row>
-    <row r="72" spans="1:28">
-      <c r="A72" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F72" s="23"/>
-    </row>
-    <row r="73" spans="1:28" ht="25.5">
-      <c r="A73" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F73" s="23"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" s="23"/>
+    </row>
+    <row r="75" spans="1:28" ht="25.5">
+      <c r="A75" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" s="23"/>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F74" s="23"/>
-    </row>
-    <row r="75" spans="1:28">
-      <c r="A75" s="10" t="s">
+      <c r="F76" s="23"/>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B77" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F75" s="23"/>
-    </row>
-    <row r="76" spans="1:28">
-      <c r="F76" s="23"/>
-    </row>
-    <row r="77" spans="1:28">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="8"/>
-      <c r="AB77" s="8"/>
+      <c r="F77" s="23"/>
     </row>
     <row r="78" spans="1:28">
-      <c r="A78" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-      <c r="AB78" s="2"/>
+      <c r="F78" s="23"/>
     </row>
     <row r="79" spans="1:28">
-      <c r="A79" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79" s="8"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="9"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="14" t="s">
-        <v>135</v>
-      </c>
+      <c r="F79" s="14"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
@@ -4904,57 +4930,53 @@
       <c r="AB79" s="8"/>
     </row>
     <row r="80" spans="1:28">
-      <c r="A80" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="8"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="8"/>
-      <c r="AA80" s="8"/>
-      <c r="AB80" s="8"/>
+      <c r="A80" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="9"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -4980,12 +5002,20 @@
       <c r="AB81" s="8"/>
     </row>
     <row r="82" spans="1:28">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="9"/>
+      <c r="A82" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" s="8"/>
       <c r="E82" s="8"/>
-      <c r="F82" s="14"/>
+      <c r="F82" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -5010,12 +5040,20 @@
       <c r="AB82" s="8"/>
     </row>
     <row r="83" spans="1:28">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
+      <c r="A83" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="D83" s="9"/>
       <c r="E83" s="8"/>
-      <c r="F83" s="14"/>
+      <c r="F83" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
@@ -5040,54 +5078,42 @@
       <c r="AB83" s="8"/>
     </row>
     <row r="84" spans="1:28">
-      <c r="A84" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
-      <c r="AA84" s="2"/>
-      <c r="AB84" s="2"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="8"/>
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="8"/>
+      <c r="AB84" s="8"/>
     </row>
     <row r="85" spans="1:28">
-      <c r="A85" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
       <c r="D85" s="9"/>
       <c r="E85" s="8"/>
-      <c r="F85" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="F85" s="14"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -5111,49 +5137,55 @@
       <c r="AA85" s="8"/>
       <c r="AB85" s="8"/>
     </row>
-    <row r="86" spans="1:28" ht="25.5">
-      <c r="A86" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
-      <c r="V86" s="8"/>
-      <c r="W86" s="8"/>
-      <c r="X86" s="8"/>
-      <c r="Y86" s="8"/>
-      <c r="Z86" s="8"/>
-      <c r="AA86" s="8"/>
-      <c r="AB86" s="8"/>
+    <row r="86" spans="1:28">
+      <c r="A86" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
     </row>
     <row r="87" spans="1:28">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
+      <c r="A87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="D87" s="9"/>
       <c r="E87" s="8"/>
-      <c r="F87" s="14"/>
+      <c r="F87" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -5177,10 +5209,16 @@
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
     </row>
-    <row r="88" spans="1:28">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
+    <row r="88" spans="1:28" ht="25.5">
+      <c r="A88" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="D88" s="9"/>
       <c r="E88" s="8"/>
       <c r="F88" s="14"/>
@@ -5238,54 +5276,42 @@
       <c r="AB89" s="8"/>
     </row>
     <row r="90" spans="1:28">
-      <c r="A90" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
-      <c r="AA90" s="2"/>
-      <c r="AB90" s="2"/>
-    </row>
-    <row r="91" spans="1:28" ht="25.5">
-      <c r="A91" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D91" s="8"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8"/>
+      <c r="AB90" s="8"/>
+    </row>
+    <row r="91" spans="1:28">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="9"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="F91" s="14"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
@@ -5310,57 +5336,53 @@
       <c r="AB91" s="8"/>
     </row>
     <row r="92" spans="1:28">
-      <c r="A92" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="8"/>
-      <c r="W92" s="8"/>
-      <c r="X92" s="8"/>
-      <c r="Y92" s="8"/>
-      <c r="Z92" s="8"/>
-      <c r="AA92" s="8"/>
-      <c r="AB92" s="8"/>
-    </row>
-    <row r="93" spans="1:28">
+      <c r="A92" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+    </row>
+    <row r="93" spans="1:28" ht="25.5">
       <c r="A93" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -5387,18 +5409,18 @@
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="8" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -5424,53 +5446,57 @@
       <c r="AB94" s="8"/>
     </row>
     <row r="95" spans="1:28">
-      <c r="A95" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="5"/>
-      <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
-      <c r="AB95" s="5"/>
+      <c r="A95" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="8"/>
+      <c r="X95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="8"/>
+      <c r="AB95" s="8"/>
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -5496,54 +5522,54 @@
       <c r="AB96" s="8"/>
     </row>
     <row r="97" spans="1:28">
-      <c r="A97" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="8"/>
-      <c r="W97" s="8"/>
-      <c r="X97" s="8"/>
-      <c r="Y97" s="8"/>
-      <c r="Z97" s="8"/>
-      <c r="AA97" s="8"/>
-      <c r="AB97" s="8"/>
+      <c r="A97" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
     </row>
     <row r="98" spans="1:28">
       <c r="A98" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="14"/>
+      <c r="F98" s="14" t="s">
+        <v>166</v>
+      </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
@@ -5569,19 +5595,17 @@
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="8" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
-      <c r="F99" s="14" t="s">
-        <v>334</v>
-      </c>
+      <c r="F99" s="14"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -5607,19 +5631,17 @@
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="8" t="s">
-        <v>331</v>
+        <v>169</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>347</v>
+        <v>170</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
-      <c r="F100" s="14" t="s">
-        <v>323</v>
-      </c>
+      <c r="F100" s="14"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
@@ -5645,18 +5667,18 @@
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="8" t="s">
-        <v>171</v>
+        <v>332</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>172</v>
+        <v>333</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="14" t="s">
-        <v>173</v>
+        <v>334</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -5683,17 +5705,19 @@
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="8" t="s">
-        <v>174</v>
+        <v>331</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
-      <c r="F102" s="14"/>
+      <c r="F102" s="14" t="s">
+        <v>323</v>
+      </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
@@ -5717,19 +5741,21 @@
       <c r="AA102" s="8"/>
       <c r="AB102" s="8"/>
     </row>
-    <row r="103" spans="1:28" ht="25.5">
+    <row r="103" spans="1:28">
       <c r="A103" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
-      <c r="F103" s="14"/>
+      <c r="F103" s="14" t="s">
+        <v>173</v>
+      </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
@@ -5754,46 +5780,50 @@
       <c r="AB103" s="8"/>
     </row>
     <row r="104" spans="1:28">
-      <c r="A104" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6"/>
-      <c r="U104" s="6"/>
-      <c r="V104" s="6"/>
-      <c r="W104" s="6"/>
-      <c r="X104" s="6"/>
-      <c r="Y104" s="6"/>
-      <c r="Z104" s="6"/>
-      <c r="AA104" s="6"/>
-      <c r="AB104" s="6"/>
-    </row>
-    <row r="105" spans="1:28">
+      <c r="A104" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="8"/>
+      <c r="X104" s="8"/>
+      <c r="Y104" s="8"/>
+      <c r="Z104" s="8"/>
+      <c r="AA104" s="8"/>
+      <c r="AB104" s="8"/>
+    </row>
+    <row r="105" spans="1:28" ht="25.5">
       <c r="A105" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5822,47 +5852,43 @@
       <c r="AB105" s="8"/>
     </row>
     <row r="106" spans="1:28">
-      <c r="A106" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
-      <c r="S106" s="8"/>
-      <c r="T106" s="8"/>
-      <c r="U106" s="8"/>
-      <c r="V106" s="8"/>
-      <c r="W106" s="8"/>
-      <c r="X106" s="8"/>
-      <c r="Y106" s="8"/>
-      <c r="Z106" s="8"/>
-      <c r="AA106" s="8"/>
-      <c r="AB106" s="8"/>
+      <c r="A106" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
+      <c r="Y106" s="6"/>
+      <c r="Z106" s="6"/>
+      <c r="AA106" s="6"/>
+      <c r="AB106" s="6"/>
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>26</v>
@@ -5895,19 +5921,17 @@
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="8" t="s">
-        <v>336</v>
+        <v>182</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>338</v>
+        <v>183</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
-      <c r="F108" s="14" t="s">
-        <v>335</v>
-      </c>
+      <c r="F108" s="14"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -5933,19 +5957,17 @@
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="8" t="s">
-        <v>346</v>
+        <v>184</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>345</v>
+        <v>185</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
-      <c r="F109" s="16" t="s">
-        <v>337</v>
-      </c>
+      <c r="F109" s="14"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
@@ -5971,17 +5993,19 @@
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="8" t="s">
-        <v>186</v>
+        <v>336</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
-      <c r="F110" s="14"/>
+      <c r="F110" s="14" t="s">
+        <v>335</v>
+      </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -6007,17 +6031,19 @@
     </row>
     <row r="111" spans="1:28">
       <c r="A111" s="8" t="s">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>189</v>
+        <v>345</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="14"/>
+      <c r="F111" s="16" t="s">
+        <v>337</v>
+      </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
@@ -6043,13 +6069,13 @@
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -6078,46 +6104,50 @@
       <c r="AB112" s="8"/>
     </row>
     <row r="113" spans="1:28">
-      <c r="A113" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
-      <c r="T113" s="6"/>
-      <c r="U113" s="6"/>
-      <c r="V113" s="6"/>
-      <c r="W113" s="6"/>
-      <c r="X113" s="6"/>
-      <c r="Y113" s="6"/>
-      <c r="Z113" s="6"/>
-      <c r="AA113" s="6"/>
-      <c r="AB113" s="6"/>
+      <c r="A113" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="8"/>
+      <c r="X113" s="8"/>
+      <c r="Y113" s="8"/>
+      <c r="Z113" s="8"/>
+      <c r="AA113" s="8"/>
+      <c r="AB113" s="8"/>
     </row>
     <row r="114" spans="1:28">
       <c r="A114" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -6146,47 +6176,43 @@
       <c r="AB114" s="8"/>
     </row>
     <row r="115" spans="1:28">
-      <c r="A115" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="8"/>
-      <c r="S115" s="8"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="8"/>
-      <c r="V115" s="8"/>
-      <c r="W115" s="8"/>
-      <c r="X115" s="8"/>
-      <c r="Y115" s="8"/>
-      <c r="Z115" s="8"/>
-      <c r="AA115" s="8"/>
-      <c r="AB115" s="8"/>
+      <c r="A115" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="6"/>
+      <c r="Y115" s="6"/>
+      <c r="Z115" s="6"/>
+      <c r="AA115" s="6"/>
+      <c r="AB115" s="6"/>
     </row>
     <row r="116" spans="1:28">
       <c r="A116" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>26</v>
@@ -6219,19 +6245,17 @@
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="8" t="s">
-        <v>339</v>
+        <v>196</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>340</v>
+        <v>197</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
-      <c r="F117" s="14" t="s">
-        <v>334</v>
-      </c>
+      <c r="F117" s="14"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
@@ -6257,19 +6281,17 @@
     </row>
     <row r="118" spans="1:28">
       <c r="A118" s="8" t="s">
-        <v>349</v>
+        <v>198</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
-      <c r="F118" s="26" t="s">
-        <v>323</v>
-      </c>
+      <c r="F118" s="14"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -6295,17 +6317,19 @@
     </row>
     <row r="119" spans="1:28">
       <c r="A119" s="8" t="s">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>201</v>
+        <v>340</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
-      <c r="F119" s="14"/>
+      <c r="F119" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -6331,17 +6355,19 @@
     </row>
     <row r="120" spans="1:28">
       <c r="A120" s="8" t="s">
-        <v>202</v>
+        <v>349</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
-      <c r="F120" s="14"/>
+      <c r="F120" s="26" t="s">
+        <v>323</v>
+      </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -6365,15 +6391,15 @@
       <c r="AA120" s="8"/>
       <c r="AB120" s="8"/>
     </row>
-    <row r="121" spans="1:28" ht="25.5">
+    <row r="121" spans="1:28">
       <c r="A121" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -6402,52 +6428,54 @@
       <c r="AB121" s="8"/>
     </row>
     <row r="122" spans="1:28">
-      <c r="A122" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="6"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="6"/>
-      <c r="R122" s="6"/>
-      <c r="S122" s="6"/>
-      <c r="T122" s="6"/>
-      <c r="U122" s="6"/>
-      <c r="V122" s="6"/>
-      <c r="W122" s="6"/>
-      <c r="X122" s="6"/>
-      <c r="Y122" s="6"/>
-      <c r="Z122" s="6"/>
-      <c r="AA122" s="6"/>
-      <c r="AB122" s="6"/>
-    </row>
-    <row r="123" spans="1:28">
+      <c r="A122" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8"/>
+      <c r="S122" s="8"/>
+      <c r="T122" s="8"/>
+      <c r="U122" s="8"/>
+      <c r="V122" s="8"/>
+      <c r="W122" s="8"/>
+      <c r="X122" s="8"/>
+      <c r="Y122" s="8"/>
+      <c r="Z122" s="8"/>
+      <c r="AA122" s="8"/>
+      <c r="AB122" s="8"/>
+    </row>
+    <row r="123" spans="1:28" ht="25.5">
       <c r="A123" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
-      <c r="F123" s="14" t="s">
-        <v>209</v>
-      </c>
+      <c r="F123" s="14"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -6472,54 +6500,52 @@
       <c r="AB123" s="8"/>
     </row>
     <row r="124" spans="1:28">
-      <c r="A124" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="8"/>
-      <c r="S124" s="8"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="8"/>
-      <c r="V124" s="8"/>
-      <c r="W124" s="8"/>
-      <c r="X124" s="8"/>
-      <c r="Y124" s="8"/>
-      <c r="Z124" s="8"/>
-      <c r="AA124" s="8"/>
-      <c r="AB124" s="8"/>
+      <c r="A124" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+      <c r="U124" s="6"/>
+      <c r="V124" s="6"/>
+      <c r="W124" s="6"/>
+      <c r="X124" s="6"/>
+      <c r="Y124" s="6"/>
+      <c r="Z124" s="6"/>
+      <c r="AA124" s="6"/>
+      <c r="AB124" s="6"/>
     </row>
     <row r="125" spans="1:28">
       <c r="A125" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C125" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
-      <c r="F125" s="14"/>
+      <c r="F125" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -6545,19 +6571,17 @@
     </row>
     <row r="126" spans="1:28">
       <c r="A126" s="8" t="s">
-        <v>341</v>
+        <v>210</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>342</v>
+        <v>211</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
-      <c r="F126" s="14" t="s">
-        <v>334</v>
-      </c>
+      <c r="F126" s="14"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
@@ -6583,19 +6607,17 @@
     </row>
     <row r="127" spans="1:28">
       <c r="A127" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C127" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
-      <c r="F127" s="14" t="s">
-        <v>324</v>
-      </c>
+      <c r="F127" s="14"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
@@ -6621,17 +6643,19 @@
     </row>
     <row r="128" spans="1:28">
       <c r="A128" s="8" t="s">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
-      <c r="F128" s="14"/>
+      <c r="F128" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -6657,17 +6681,19 @@
     </row>
     <row r="129" spans="1:28">
       <c r="A129" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
-      <c r="F129" s="14"/>
+      <c r="F129" s="14" t="s">
+        <v>324</v>
+      </c>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -6693,13 +6719,13 @@
     </row>
     <row r="130" spans="1:28">
       <c r="A130" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -6728,9 +6754,15 @@
       <c r="AB130" s="8"/>
     </row>
     <row r="131" spans="1:28">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
+      <c r="A131" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="14"/>
@@ -6757,51 +6789,49 @@
       <c r="AA131" s="8"/>
       <c r="AB131" s="8"/>
     </row>
-    <row r="132" spans="1:28" ht="25.5">
-      <c r="A132" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
-      <c r="O132" s="5"/>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5"/>
-      <c r="V132" s="5"/>
-      <c r="W132" s="5"/>
-      <c r="X132" s="5"/>
-      <c r="Y132" s="5"/>
-      <c r="Z132" s="5"/>
-      <c r="AA132" s="5"/>
-      <c r="AB132" s="5"/>
+    <row r="132" spans="1:28">
+      <c r="A132" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+      <c r="Q132" s="8"/>
+      <c r="R132" s="8"/>
+      <c r="S132" s="8"/>
+      <c r="T132" s="8"/>
+      <c r="U132" s="8"/>
+      <c r="V132" s="8"/>
+      <c r="W132" s="8"/>
+      <c r="X132" s="8"/>
+      <c r="Y132" s="8"/>
+      <c r="Z132" s="8"/>
+      <c r="AA132" s="8"/>
+      <c r="AB132" s="8"/>
     </row>
     <row r="133" spans="1:28">
-      <c r="A133" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C133" s="9"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
-      <c r="F133" s="20"/>
+      <c r="F133" s="14"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -6825,59 +6855,51 @@
       <c r="AA133" s="8"/>
       <c r="AB133" s="8"/>
     </row>
-    <row r="134" spans="1:28">
-      <c r="A134" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
-      <c r="O134" s="8"/>
-      <c r="P134" s="8"/>
-      <c r="Q134" s="8"/>
-      <c r="R134" s="8"/>
-      <c r="S134" s="8"/>
-      <c r="T134" s="8"/>
-      <c r="U134" s="8"/>
-      <c r="V134" s="8"/>
-      <c r="W134" s="8"/>
-      <c r="X134" s="8"/>
-      <c r="Y134" s="8"/>
-      <c r="Z134" s="8"/>
-      <c r="AA134" s="8"/>
-      <c r="AB134" s="8"/>
+    <row r="134" spans="1:28" ht="25.5">
+      <c r="A134" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+      <c r="S134" s="5"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5"/>
+      <c r="V134" s="5"/>
+      <c r="W134" s="5"/>
+      <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
+      <c r="AA134" s="5"/>
+      <c r="AB134" s="5"/>
     </row>
     <row r="135" spans="1:28">
       <c r="A135" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C135" s="9"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
-      <c r="F135" s="14" t="s">
-        <v>230</v>
-      </c>
+      <c r="F135" s="20"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -6903,18 +6925,18 @@
     </row>
     <row r="136" spans="1:28">
       <c r="A136" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
-      <c r="F136" s="14" t="s">
-        <v>233</v>
+      <c r="F136" s="20" t="s">
+        <v>227</v>
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
@@ -6941,18 +6963,18 @@
     </row>
     <row r="137" spans="1:28">
       <c r="A137" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
-      <c r="F137" s="16" t="s">
-        <v>236</v>
+      <c r="F137" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
@@ -6978,12 +7000,20 @@
       <c r="AB137" s="8"/>
     </row>
     <row r="138" spans="1:28">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="9"/>
+      <c r="A138" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="8"/>
       <c r="E138" s="8"/>
-      <c r="F138" s="14"/>
+      <c r="F138" s="14" t="s">
+        <v>233</v>
+      </c>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
@@ -7008,12 +7038,20 @@
       <c r="AB138" s="8"/>
     </row>
     <row r="139" spans="1:28">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="9"/>
+      <c r="A139" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="8"/>
       <c r="E139" s="8"/>
-      <c r="F139" s="14"/>
+      <c r="F139" s="16" t="s">
+        <v>236</v>
+      </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -7098,54 +7136,42 @@
       <c r="AB141" s="8"/>
     </row>
     <row r="142" spans="1:28">
-      <c r="A142" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="2"/>
-      <c r="S142" s="2"/>
-      <c r="T142" s="2"/>
-      <c r="U142" s="2"/>
-      <c r="V142" s="2"/>
-      <c r="W142" s="2"/>
-      <c r="X142" s="2"/>
-      <c r="Y142" s="2"/>
-      <c r="Z142" s="2"/>
-      <c r="AA142" s="2"/>
-      <c r="AB142" s="2"/>
-    </row>
-    <row r="143" spans="1:28" ht="25.5">
-      <c r="A143" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+      <c r="Q142" s="8"/>
+      <c r="R142" s="8"/>
+      <c r="S142" s="8"/>
+      <c r="T142" s="8"/>
+      <c r="U142" s="8"/>
+      <c r="V142" s="8"/>
+      <c r="W142" s="8"/>
+      <c r="X142" s="8"/>
+      <c r="Y142" s="8"/>
+      <c r="Z142" s="8"/>
+      <c r="AA142" s="8"/>
+      <c r="AB142" s="8"/>
+    </row>
+    <row r="143" spans="1:28">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
       <c r="D143" s="9"/>
       <c r="E143" s="8"/>
-      <c r="F143" s="14" t="s">
-        <v>239</v>
-      </c>
+      <c r="F143" s="14"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -7170,126 +7196,122 @@
       <c r="AB143" s="8"/>
     </row>
     <row r="144" spans="1:28">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="2"/>
+      <c r="X144" s="2"/>
+      <c r="Y144" s="2"/>
+      <c r="Z144" s="2"/>
+      <c r="AA144" s="2"/>
+      <c r="AB144" s="2"/>
+    </row>
+    <row r="145" spans="1:28" ht="25.5">
+      <c r="A145" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+      <c r="Q145" s="8"/>
+      <c r="R145" s="8"/>
+      <c r="S145" s="8"/>
+      <c r="T145" s="8"/>
+      <c r="U145" s="8"/>
+      <c r="V145" s="8"/>
+      <c r="W145" s="8"/>
+      <c r="X145" s="8"/>
+      <c r="Y145" s="8"/>
+      <c r="Z145" s="8"/>
+      <c r="AA145" s="8"/>
+      <c r="AB145" s="8"/>
+    </row>
+    <row r="146" spans="1:28">
+      <c r="A146" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B146" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C146" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="16" t="s">
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="16" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="145" spans="1:28">
-      <c r="A145" s="10" t="s">
+    <row r="147" spans="1:28">
+      <c r="A147" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B147" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C147" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D145" s="7"/>
-      <c r="F145" s="16" t="s">
+      <c r="D147" s="7"/>
+      <c r="F147" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="25.5">
-      <c r="A146" s="8" t="s">
+    <row r="148" spans="1:28" ht="25.5">
+      <c r="A148" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B148" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C148" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="D146" s="9"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="8"/>
-      <c r="N146" s="8"/>
-      <c r="O146" s="8"/>
-      <c r="P146" s="8"/>
-      <c r="Q146" s="8"/>
-      <c r="R146" s="8"/>
-      <c r="S146" s="8"/>
-      <c r="T146" s="8"/>
-      <c r="U146" s="8"/>
-      <c r="V146" s="8"/>
-      <c r="W146" s="8"/>
-      <c r="X146" s="8"/>
-      <c r="Y146" s="8"/>
-      <c r="Z146" s="8"/>
-      <c r="AA146" s="8"/>
-      <c r="AB146" s="8"/>
-    </row>
-    <row r="147" spans="1:28">
-      <c r="A147" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="8"/>
-      <c r="O147" s="8"/>
-      <c r="P147" s="8"/>
-      <c r="Q147" s="8"/>
-      <c r="R147" s="8"/>
-      <c r="S147" s="8"/>
-      <c r="T147" s="8"/>
-      <c r="U147" s="8"/>
-      <c r="V147" s="8"/>
-      <c r="W147" s="8"/>
-      <c r="X147" s="8"/>
-      <c r="Y147" s="8"/>
-      <c r="Z147" s="8"/>
-      <c r="AA147" s="8"/>
-      <c r="AB147" s="8"/>
-    </row>
-    <row r="148" spans="1:28">
-      <c r="A148" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="8"/>
-      <c r="F148" s="19" t="s">
-        <v>328</v>
+      <c r="F148" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
@@ -7315,11 +7337,11 @@
       <c r="AB148" s="8"/>
     </row>
     <row r="149" spans="1:28">
-      <c r="A149" s="7" t="s">
-        <v>247</v>
+      <c r="A149" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>248</v>
+        <v>352</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>26</v>
@@ -7327,7 +7349,7 @@
       <c r="D149" s="9"/>
       <c r="E149" s="8"/>
       <c r="F149" s="14" t="s">
-        <v>249</v>
+        <v>351</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -7353,19 +7375,19 @@
       <c r="AB149" s="8"/>
     </row>
     <row r="150" spans="1:28">
-      <c r="A150" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C150" s="8" t="s">
+      <c r="A150" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="8"/>
-      <c r="F150" s="14" t="s">
-        <v>251</v>
+      <c r="F150" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
@@ -7391,11 +7413,11 @@
       <c r="AB150" s="8"/>
     </row>
     <row r="151" spans="1:28">
-      <c r="A151" s="8" t="s">
-        <v>252</v>
+      <c r="A151" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>26</v>
@@ -7403,7 +7425,7 @@
       <c r="D151" s="9"/>
       <c r="E151" s="8"/>
       <c r="F151" s="14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -7430,17 +7452,19 @@
     </row>
     <row r="152" spans="1:28">
       <c r="A152" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="8"/>
-      <c r="F152" s="14"/>
+      <c r="F152" s="14" t="s">
+        <v>251</v>
+      </c>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
@@ -7464,12 +7488,12 @@
       <c r="AA152" s="8"/>
       <c r="AB152" s="8"/>
     </row>
-    <row r="153" spans="1:28" ht="25.5">
+    <row r="153" spans="1:28">
       <c r="A153" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>26</v>
@@ -7477,7 +7501,7 @@
       <c r="D153" s="9"/>
       <c r="E153" s="8"/>
       <c r="F153" s="14" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
@@ -7504,19 +7528,17 @@
     </row>
     <row r="154" spans="1:28">
       <c r="A154" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="8"/>
-      <c r="F154" s="14" t="s">
-        <v>262</v>
-      </c>
+      <c r="F154" s="14"/>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
@@ -7542,18 +7564,18 @@
     </row>
     <row r="155" spans="1:28" ht="25.5">
       <c r="A155" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="8"/>
       <c r="F155" s="14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -7579,12 +7601,20 @@
       <c r="AB155" s="8"/>
     </row>
     <row r="156" spans="1:28">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
+      <c r="A156" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D156" s="9"/>
       <c r="E156" s="8"/>
-      <c r="F156" s="14"/>
+      <c r="F156" s="14" t="s">
+        <v>262</v>
+      </c>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
@@ -7608,13 +7638,21 @@
       <c r="AA156" s="8"/>
       <c r="AB156" s="8"/>
     </row>
-    <row r="157" spans="1:28">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
+    <row r="157" spans="1:28" ht="25.5">
+      <c r="A157" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="D157" s="9"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="14"/>
+      <c r="F157" s="14" t="s">
+        <v>265</v>
+      </c>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
@@ -7669,54 +7707,42 @@
       <c r="AB158" s="8"/>
     </row>
     <row r="159" spans="1:28">
-      <c r="A159" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2"/>
-      <c r="V159" s="2"/>
-      <c r="W159" s="2"/>
-      <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
-      <c r="Z159" s="2"/>
-      <c r="AA159" s="2"/>
-      <c r="AB159" s="2"/>
-    </row>
-    <row r="160" spans="1:28" ht="63.75">
-      <c r="A160" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D160" s="8"/>
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="8"/>
+      <c r="N159" s="8"/>
+      <c r="O159" s="8"/>
+      <c r="P159" s="8"/>
+      <c r="Q159" s="8"/>
+      <c r="R159" s="8"/>
+      <c r="S159" s="8"/>
+      <c r="T159" s="8"/>
+      <c r="U159" s="8"/>
+      <c r="V159" s="8"/>
+      <c r="W159" s="8"/>
+      <c r="X159" s="8"/>
+      <c r="Y159" s="8"/>
+      <c r="Z159" s="8"/>
+      <c r="AA159" s="8"/>
+      <c r="AB159" s="8"/>
+    </row>
+    <row r="160" spans="1:28">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="9"/>
       <c r="E160" s="8"/>
-      <c r="F160" s="14" t="s">
-        <v>269</v>
-      </c>
+      <c r="F160" s="14"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
@@ -7740,58 +7766,54 @@
       <c r="AA160" s="8"/>
       <c r="AB160" s="8"/>
     </row>
-    <row r="161" spans="1:28" ht="51">
-      <c r="A161" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
-      <c r="K161" s="8"/>
-      <c r="L161" s="8"/>
-      <c r="M161" s="8"/>
-      <c r="N161" s="8"/>
-      <c r="O161" s="8"/>
-      <c r="P161" s="8"/>
-      <c r="Q161" s="8"/>
-      <c r="R161" s="8"/>
-      <c r="S161" s="8"/>
-      <c r="T161" s="8"/>
-      <c r="U161" s="8"/>
-      <c r="V161" s="8"/>
-      <c r="W161" s="8"/>
-      <c r="X161" s="8"/>
-      <c r="Y161" s="8"/>
-      <c r="Z161" s="8"/>
-      <c r="AA161" s="8"/>
-      <c r="AB161" s="8"/>
-    </row>
-    <row r="162" spans="1:28" ht="38.25">
+    <row r="161" spans="1:28">
+      <c r="A161" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+      <c r="S161" s="2"/>
+      <c r="T161" s="2"/>
+      <c r="U161" s="2"/>
+      <c r="V161" s="2"/>
+      <c r="W161" s="2"/>
+      <c r="X161" s="2"/>
+      <c r="Y161" s="2"/>
+      <c r="Z161" s="2"/>
+      <c r="AA161" s="2"/>
+      <c r="AB161" s="2"/>
+    </row>
+    <row r="162" spans="1:28" ht="63.75">
       <c r="A162" s="8" t="s">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
       <c r="F162" s="14" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
@@ -7816,20 +7838,20 @@
       <c r="AA162" s="8"/>
       <c r="AB162" s="8"/>
     </row>
-    <row r="163" spans="1:28" ht="38.25">
+    <row r="163" spans="1:28" ht="51">
       <c r="A163" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
@@ -7854,13 +7876,21 @@
       <c r="AA163" s="8"/>
       <c r="AB163" s="8"/>
     </row>
-    <row r="164" spans="1:28">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
+    <row r="164" spans="1:28" ht="38.25">
+      <c r="A164" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
-      <c r="F164" s="14"/>
+      <c r="F164" s="14" t="s">
+        <v>275</v>
+      </c>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
@@ -7884,13 +7914,21 @@
       <c r="AA164" s="8"/>
       <c r="AB164" s="8"/>
     </row>
-    <row r="165" spans="1:28">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
+    <row r="165" spans="1:28" ht="38.25">
+      <c r="A165" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
-      <c r="F165" s="14"/>
+      <c r="F165" s="14" t="s">
+        <v>278</v>
+      </c>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
       <c r="I165" s="8"/>
@@ -8005,10 +8043,64 @@
       <c r="AB168" s="8"/>
     </row>
     <row r="169" spans="1:28">
-      <c r="F169" s="23"/>
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="8"/>
+      <c r="M169" s="8"/>
+      <c r="N169" s="8"/>
+      <c r="O169" s="8"/>
+      <c r="P169" s="8"/>
+      <c r="Q169" s="8"/>
+      <c r="R169" s="8"/>
+      <c r="S169" s="8"/>
+      <c r="T169" s="8"/>
+      <c r="U169" s="8"/>
+      <c r="V169" s="8"/>
+      <c r="W169" s="8"/>
+      <c r="X169" s="8"/>
+      <c r="Y169" s="8"/>
+      <c r="Z169" s="8"/>
+      <c r="AA169" s="8"/>
+      <c r="AB169" s="8"/>
     </row>
     <row r="170" spans="1:28">
-      <c r="F170" s="23"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="8"/>
+      <c r="N170" s="8"/>
+      <c r="O170" s="8"/>
+      <c r="P170" s="8"/>
+      <c r="Q170" s="8"/>
+      <c r="R170" s="8"/>
+      <c r="S170" s="8"/>
+      <c r="T170" s="8"/>
+      <c r="U170" s="8"/>
+      <c r="V170" s="8"/>
+      <c r="W170" s="8"/>
+      <c r="X170" s="8"/>
+      <c r="Y170" s="8"/>
+      <c r="Z170" s="8"/>
+      <c r="AA170" s="8"/>
+      <c r="AB170" s="8"/>
     </row>
     <row r="171" spans="1:28">
       <c r="F171" s="23"/>
@@ -8121,9 +8213,15 @@
     <row r="207" spans="6:6">
       <c r="F207" s="23"/>
     </row>
+    <row r="208" spans="6:6">
+      <c r="F208" s="23"/>
+    </row>
+    <row r="209" spans="6:6">
+      <c r="F209" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F49:I58"/>
+    <mergeCell ref="F51:I60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/FTLSupporter adatszerkezetek.xlsx
+++ b/doc/FTLSupporter adatszerkezetek.xlsx
@@ -2395,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
